--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3435064.301183274</v>
+        <v>-3436847.207043137</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6028847.321918212</v>
+        <v>6028847.321918211</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17269927.94645967</v>
+        <v>17269927.94645966</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.165107859198</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>327.3073119374288</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>332.959491363645</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>23.9427685004096</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.22713566997376</v>
+        <v>66.22713566997386</v>
       </c>
       <c r="T11" t="n">
-        <v>131.3816879599484</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>171.5549581157771</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.1835246658523</v>
+        <v>223.1300285584499</v>
       </c>
       <c r="W11" t="n">
-        <v>269.6722349131304</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>290.1623668741864</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>285.5297794906128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>86.96444984558477</v>
       </c>
       <c r="C12" t="n">
-        <v>93.13976518403317</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>67.87633176035618</v>
@@ -1497,7 +1497,7 @@
         <v>7.98892659808449</v>
       </c>
       <c r="S12" t="n">
-        <v>144.1093279635754</v>
+        <v>64.54059415929278</v>
       </c>
       <c r="T12" t="n">
         <v>194.1811721786702</v>
@@ -1506,16 +1506,16 @@
         <v>225.8437179376209</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>153.2318533451427</v>
       </c>
       <c r="W12" t="n">
-        <v>172.126249356637</v>
+        <v>242.4575757510894</v>
       </c>
       <c r="X12" t="n">
-        <v>196.5355777936471</v>
+        <v>126.2042513991949</v>
       </c>
       <c r="Y12" t="n">
-        <v>126.1139619730218</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1579,10 +1579,10 @@
         <v>122.7587393607691</v>
       </c>
       <c r="T13" t="n">
-        <v>143.0592298077224</v>
+        <v>143.0592298077221</v>
       </c>
       <c r="U13" t="n">
-        <v>206.6824109673193</v>
+        <v>206.6824109673196</v>
       </c>
       <c r="V13" t="n">
         <v>172.5689095195454</v>
@@ -1610,19 +1610,19 @@
         <v>285.704157966725</v>
       </c>
       <c r="D14" t="n">
-        <v>275.1143078164004</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>56.13026307145386</v>
+        <v>79.11487006655051</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>327.3073119374288</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>231.4915937356466</v>
       </c>
       <c r="I14" t="n">
         <v>23.94276850040939</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.22713566997375</v>
+        <v>66.22713566997363</v>
       </c>
       <c r="T14" t="n">
-        <v>131.3816879599482</v>
+        <v>131.3816879599483</v>
       </c>
       <c r="U14" t="n">
-        <v>171.5549581157773</v>
+        <v>171.5549581157775</v>
       </c>
       <c r="V14" t="n">
         <v>248.1835246658523</v>
@@ -1673,7 +1673,7 @@
         <v>290.1623668741864</v>
       </c>
       <c r="Y14" t="n">
-        <v>306.669204851771</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>150.6664126975192</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>72.53393325200467</v>
+        <v>56.29028837994817</v>
       </c>
       <c r="H15" t="n">
         <v>97.89834799213801</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>206.1354241624424</v>
       </c>
       <c r="D17" t="n">
-        <v>195.5455740121178</v>
+        <v>182.1192474049288</v>
       </c>
       <c r="E17" t="n">
         <v>222.7929024636966</v>
       </c>
       <c r="F17" t="n">
-        <v>234.3122515259576</v>
+        <v>247.7385781331463</v>
       </c>
       <c r="G17" t="n">
         <v>253.3907575593625</v>
@@ -1929,13 +1929,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>56.03426036032187</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>34.2482020891517</v>
+        <v>135.8590221842308</v>
       </c>
       <c r="H18" t="n">
         <v>97.89834799213801</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>20.69451257337215</v>
       </c>
       <c r="C19" t="n">
         <v>8.109353490062688</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>53.23237099758514</v>
       </c>
       <c r="S19" t="n">
-        <v>43.19000555648648</v>
+        <v>202.3274731650516</v>
       </c>
       <c r="T19" t="n">
-        <v>116.7228670010247</v>
+        <v>63.49049600343951</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2511447716022</v>
+        <v>127.1136771630371</v>
       </c>
       <c r="V19" t="n">
-        <v>93.00017571526286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>127.3855307280259</v>
@@ -2090,7 +2090,7 @@
         <v>222.7929024636966</v>
       </c>
       <c r="F20" t="n">
-        <v>234.3122515259577</v>
+        <v>247.7385781331463</v>
       </c>
       <c r="G20" t="n">
         <v>253.3907575593625</v>
@@ -2132,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>51.81295415566575</v>
+        <v>51.81295415566581</v>
       </c>
       <c r="U20" t="n">
-        <v>91.98622431149425</v>
+        <v>91.98622431149475</v>
       </c>
       <c r="V20" t="n">
         <v>168.6147908615698</v>
@@ -2144,7 +2144,7 @@
         <v>190.1035011088479</v>
       </c>
       <c r="X20" t="n">
-        <v>210.5936330699039</v>
+        <v>197.1673064627153</v>
       </c>
       <c r="Y20" t="n">
         <v>227.1004710474884</v>
@@ -2175,10 +2175,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>34.57325905991194</v>
       </c>
       <c r="I21" t="n">
-        <v>34.57325905991194</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.69451257337215</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>8.109353490062688</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.3338652339669</v>
+        <v>53.23237099758492</v>
       </c>
       <c r="S22" t="n">
         <v>43.19000555648648</v>
@@ -2293,19 +2293,19 @@
         <v>63.49049600343951</v>
       </c>
       <c r="U22" t="n">
-        <v>127.1136771630371</v>
+        <v>286.2511447716022</v>
       </c>
       <c r="V22" t="n">
-        <v>93.00017571526286</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>127.3855307280259</v>
       </c>
       <c r="X22" t="n">
-        <v>157.6081611526553</v>
+        <v>66.57218778047201</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>59.44718574352964</v>
       </c>
     </row>
     <row r="23">
@@ -2406,16 +2406,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>56.88471890549404</v>
       </c>
       <c r="G24" t="n">
         <v>135.8590221842308</v>
       </c>
       <c r="H24" t="n">
-        <v>47.99958566710118</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>20.69451257337215</v>
       </c>
       <c r="C25" t="n">
-        <v>8.109353490062688</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>63.75436558793799</v>
       </c>
       <c r="G25" t="n">
         <v>7.608961026935204</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.3338652339669</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.19000555648648</v>
+        <v>202.3274731650516</v>
       </c>
       <c r="T25" t="n">
         <v>63.49049600343951</v>
@@ -2533,10 +2533,10 @@
         <v>127.1136771630371</v>
       </c>
       <c r="V25" t="n">
-        <v>194.5581436777992</v>
+        <v>93.00017571526286</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>127.3855307280259</v>
       </c>
       <c r="X25" t="n">
         <v>66.57218778047201</v>
@@ -2555,7 +2555,7 @@
         <v>303.165107859198</v>
       </c>
       <c r="C26" t="n">
-        <v>285.7041579667249</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D26" t="n">
         <v>275.1143078164004</v>
@@ -2573,7 +2573,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I26" t="n">
-        <v>23.94276850040936</v>
+        <v>23.94276850040939</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>66.22713566997375</v>
       </c>
       <c r="T26" t="n">
-        <v>131.3816879599483</v>
+        <v>131.3816879599486</v>
       </c>
       <c r="U26" t="n">
         <v>171.5549581157775</v>
@@ -2713,25 +2713,25 @@
         <v>100.2632463776547</v>
       </c>
       <c r="C28" t="n">
-        <v>87.67808729434525</v>
+        <v>87.67808729434526</v>
       </c>
       <c r="D28" t="n">
-        <v>69.04673921392977</v>
+        <v>69.04673921392978</v>
       </c>
       <c r="E28" t="n">
-        <v>66.86522884228658</v>
+        <v>66.8652288422866</v>
       </c>
       <c r="F28" t="n">
-        <v>65.85231421864866</v>
+        <v>65.85231421864867</v>
       </c>
       <c r="G28" t="n">
-        <v>87.17769483121776</v>
+        <v>87.17769483121778</v>
       </c>
       <c r="H28" t="n">
-        <v>71.59325136630858</v>
+        <v>71.59325136630859</v>
       </c>
       <c r="I28" t="n">
-        <v>38.4547066543719</v>
+        <v>38.45470665437192</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76513142968428</v>
+        <v>41.7651314296843</v>
       </c>
       <c r="S28" t="n">
-        <v>122.758739360769</v>
+        <v>122.7587393607691</v>
       </c>
       <c r="T28" t="n">
         <v>143.0592298077221</v>
       </c>
       <c r="U28" t="n">
-        <v>206.6824109673196</v>
+        <v>206.6824109673197</v>
       </c>
       <c r="V28" t="n">
         <v>172.5689095195454</v>
@@ -2792,7 +2792,7 @@
         <v>303.165107859198</v>
       </c>
       <c r="C29" t="n">
-        <v>285.7041579667249</v>
+        <v>285.704157966725</v>
       </c>
       <c r="D29" t="n">
         <v>275.1143078164004</v>
@@ -2810,7 +2810,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I29" t="n">
-        <v>23.94276850040936</v>
+        <v>23.94276850040939</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.22713566997375</v>
+        <v>66.22713566997407</v>
       </c>
       <c r="T29" t="n">
-        <v>131.3816879599486</v>
+        <v>131.3816879599483</v>
       </c>
       <c r="U29" t="n">
         <v>171.5549581157775</v>
@@ -2950,25 +2950,25 @@
         <v>100.2632463776547</v>
       </c>
       <c r="C31" t="n">
-        <v>87.67808729434525</v>
+        <v>87.67808729434526</v>
       </c>
       <c r="D31" t="n">
-        <v>69.04673921392977</v>
+        <v>69.04673921392978</v>
       </c>
       <c r="E31" t="n">
-        <v>66.86522884228658</v>
+        <v>66.8652288422866</v>
       </c>
       <c r="F31" t="n">
-        <v>65.85231421864866</v>
+        <v>65.85231421864867</v>
       </c>
       <c r="G31" t="n">
-        <v>87.17769483121776</v>
+        <v>87.17769483121778</v>
       </c>
       <c r="H31" t="n">
-        <v>71.59325136630858</v>
+        <v>71.59325136630859</v>
       </c>
       <c r="I31" t="n">
-        <v>38.4547066543719</v>
+        <v>38.45470665437192</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76513142968428</v>
+        <v>41.7651314296843</v>
       </c>
       <c r="S31" t="n">
-        <v>122.758739360769</v>
+        <v>122.7587393607691</v>
       </c>
       <c r="T31" t="n">
         <v>143.0592298077221</v>
       </c>
       <c r="U31" t="n">
-        <v>206.6824109673196</v>
+        <v>206.6824109673197</v>
       </c>
       <c r="V31" t="n">
         <v>172.5689095195454</v>
@@ -3047,7 +3047,7 @@
         <v>231.4915937356466</v>
       </c>
       <c r="I32" t="n">
-        <v>23.94276850040943</v>
+        <v>23.9427685004094</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>131.3816879599484</v>
       </c>
       <c r="U32" t="n">
-        <v>171.5549581157771</v>
+        <v>171.5549581157779</v>
       </c>
       <c r="V32" t="n">
         <v>248.1835246658524</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.2632463776548</v>
+        <v>100.2632463776547</v>
       </c>
       <c r="C34" t="n">
-        <v>87.6780872943453</v>
+        <v>87.67808729434527</v>
       </c>
       <c r="D34" t="n">
-        <v>69.04673921392983</v>
+        <v>69.0467392139298</v>
       </c>
       <c r="E34" t="n">
-        <v>66.86522884228664</v>
+        <v>66.86522884228661</v>
       </c>
       <c r="F34" t="n">
-        <v>65.85231421864871</v>
+        <v>65.85231421864869</v>
       </c>
       <c r="G34" t="n">
-        <v>87.17769483121781</v>
+        <v>87.17769483121778</v>
       </c>
       <c r="H34" t="n">
-        <v>71.59325136630864</v>
+        <v>71.59325136630862</v>
       </c>
       <c r="I34" t="n">
-        <v>38.45470665437193</v>
+        <v>38.45470665437226</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76513142968433</v>
+        <v>41.7651314296843</v>
       </c>
       <c r="S34" t="n">
         <v>122.7587393607691</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.9379721892242</v>
+        <v>236.9379721892243</v>
       </c>
       <c r="C35" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D35" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E35" t="n">
-        <v>236.1345005980054</v>
+        <v>236.1345005980055</v>
       </c>
       <c r="F35" t="n">
-        <v>261.0801762674551</v>
+        <v>261.0801762674552</v>
       </c>
       <c r="G35" t="n">
-        <v>266.7323556936713</v>
+        <v>266.7323556936714</v>
       </c>
       <c r="H35" t="n">
-        <v>165.2644580656728</v>
+        <v>165.2644580656729</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,19 +3317,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.15455228997456</v>
+        <v>65.15455228997541</v>
       </c>
       <c r="U35" t="n">
-        <v>105.3278224458036</v>
+        <v>105.3278224458037</v>
       </c>
       <c r="V35" t="n">
-        <v>181.9563889958786</v>
+        <v>181.9563889958787</v>
       </c>
       <c r="W35" t="n">
-        <v>203.4450992431567</v>
+        <v>203.4450992431568</v>
       </c>
       <c r="X35" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y35" t="n">
         <v>240.4420691817973</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.8493518267568</v>
+        <v>34.03611070768105</v>
       </c>
       <c r="C37" t="n">
-        <v>21.4509516243715</v>
+        <v>21.45095162437158</v>
       </c>
       <c r="D37" t="n">
-        <v>2.819603543956021</v>
+        <v>2.819603543956106</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6380931723128356</v>
+        <v>0.6380931723129208</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.95055916124402</v>
+        <v>20.9505591612441</v>
       </c>
       <c r="H37" t="n">
-        <v>5.366115696334836</v>
+        <v>5.366115696334921</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>56.53160369079529</v>
+        <v>153.3448448098707</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6279636120047</v>
+        <v>76.83209413774841</v>
       </c>
       <c r="U37" t="n">
-        <v>140.4552752973459</v>
+        <v>140.455275297346</v>
       </c>
       <c r="V37" t="n">
-        <v>106.3417738495717</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>140.7271288623347</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>79.91378591478082</v>
+        <v>79.9137859147809</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>72.78878387783854</v>
       </c>
     </row>
     <row r="38">
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.9379721892242</v>
+        <v>236.9379721892243</v>
       </c>
       <c r="C38" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D38" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E38" t="n">
-        <v>236.1345005980054</v>
+        <v>236.1345005980055</v>
       </c>
       <c r="F38" t="n">
-        <v>261.0801762674551</v>
+        <v>261.0801762674552</v>
       </c>
       <c r="G38" t="n">
-        <v>266.7323556936713</v>
+        <v>266.7323556936714</v>
       </c>
       <c r="H38" t="n">
         <v>165.2644580656729</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>65.15455228997456</v>
+        <v>65.15455228997465</v>
       </c>
       <c r="U38" t="n">
-        <v>105.3278224458036</v>
+        <v>105.3278224458037</v>
       </c>
       <c r="V38" t="n">
-        <v>181.9563889958786</v>
+        <v>181.9563889958787</v>
       </c>
       <c r="W38" t="n">
-        <v>203.4450992431567</v>
+        <v>203.4450992431568</v>
       </c>
       <c r="X38" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y38" t="n">
         <v>240.4420691817973</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.03611070768096</v>
+        <v>34.03611070768105</v>
       </c>
       <c r="C40" t="n">
-        <v>21.4509516243715</v>
+        <v>21.45095162437158</v>
       </c>
       <c r="D40" t="n">
-        <v>2.819603543956021</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6380931723128356</v>
+        <v>0.6380931723129208</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>20.95055916124402</v>
+        <v>20.9505591612441</v>
       </c>
       <c r="H40" t="n">
-        <v>5.366115696334836</v>
+        <v>5.366115696334921</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>202.3274731650516</v>
+        <v>56.53160369079538</v>
       </c>
       <c r="T40" t="n">
-        <v>173.6453352568243</v>
+        <v>76.83209413774841</v>
       </c>
       <c r="U40" t="n">
-        <v>140.4552752973459</v>
+        <v>140.455275297346</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>203.1550149686472</v>
       </c>
       <c r="W40" t="n">
-        <v>140.7271288623347</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>79.91378591478082</v>
+        <v>79.9137859147809</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.78878387783845</v>
+        <v>72.78878387783854</v>
       </c>
     </row>
     <row r="41">
@@ -3737,22 +3737,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.9379721892242</v>
+        <v>236.9379721892243</v>
       </c>
       <c r="C41" t="n">
-        <v>219.4770222967512</v>
+        <v>219.4770222967513</v>
       </c>
       <c r="D41" t="n">
-        <v>208.8871721464266</v>
+        <v>208.8871721464267</v>
       </c>
       <c r="E41" t="n">
-        <v>236.1345005980054</v>
+        <v>236.1345005980055</v>
       </c>
       <c r="F41" t="n">
-        <v>261.0801762674551</v>
+        <v>261.0801762674552</v>
       </c>
       <c r="G41" t="n">
-        <v>266.7323556936713</v>
+        <v>266.7323556936714</v>
       </c>
       <c r="H41" t="n">
         <v>165.2644580656729</v>
@@ -3791,19 +3791,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>65.15455228997456</v>
+        <v>65.15455228997465</v>
       </c>
       <c r="U41" t="n">
-        <v>105.3278224458034</v>
+        <v>105.3278224458037</v>
       </c>
       <c r="V41" t="n">
-        <v>181.9563889958786</v>
+        <v>181.9563889958787</v>
       </c>
       <c r="W41" t="n">
-        <v>203.4450992431567</v>
+        <v>203.4450992431568</v>
       </c>
       <c r="X41" t="n">
-        <v>223.9352312042127</v>
+        <v>223.9352312042128</v>
       </c>
       <c r="Y41" t="n">
         <v>240.4420691817973</v>
@@ -3834,10 +3834,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H42" t="n">
-        <v>97.89834799213803</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I42" t="n">
-        <v>38.28573116285299</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.988926598084518</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S42" t="n">
         <v>144.1093279635754</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34.03611070768096</v>
+        <v>34.03611070768105</v>
       </c>
       <c r="C43" t="n">
-        <v>21.4509516243715</v>
+        <v>21.45095162437158</v>
       </c>
       <c r="D43" t="n">
-        <v>2.819603543956021</v>
+        <v>2.819603543956106</v>
       </c>
       <c r="E43" t="n">
-        <v>0.6380931723128356</v>
+        <v>0.6380931723129208</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>20.95055916124402</v>
+        <v>20.9505591612441</v>
       </c>
       <c r="H43" t="n">
-        <v>5.366115696334839</v>
+        <v>5.366115696334921</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>202.3274731650516</v>
+        <v>56.53160369079538</v>
       </c>
       <c r="T43" t="n">
-        <v>76.83209413774833</v>
+        <v>76.83209413774841</v>
       </c>
       <c r="U43" t="n">
-        <v>140.4552752973459</v>
+        <v>140.455275297346</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>140.7271288623347</v>
+        <v>237.9151914327352</v>
       </c>
       <c r="X43" t="n">
-        <v>79.91378591478082</v>
+        <v>79.9137859147809</v>
       </c>
       <c r="Y43" t="n">
-        <v>169.602024996914</v>
+        <v>72.78878387783854</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3992,7 @@
         <v>266.7323556936713</v>
       </c>
       <c r="H44" t="n">
-        <v>165.2644580656729</v>
+        <v>165.2644580656728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,7 +4031,7 @@
         <v>65.15455228997456</v>
       </c>
       <c r="U44" t="n">
-        <v>105.3278224458036</v>
+        <v>105.3278224458043</v>
       </c>
       <c r="V44" t="n">
         <v>181.9563889958786</v>
@@ -4071,10 +4071,10 @@
         <v>135.8590221842308</v>
       </c>
       <c r="H45" t="n">
-        <v>97.89834799213803</v>
+        <v>97.89834799213801</v>
       </c>
       <c r="I45" t="n">
-        <v>38.28573116285299</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.988926598084518</v>
+        <v>7.98892659808449</v>
       </c>
       <c r="S45" t="n">
         <v>144.1093279635754</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.03611070768096</v>
+        <v>131.2241732780822</v>
       </c>
       <c r="C46" t="n">
         <v>21.4509516243715</v>
@@ -4144,13 +4144,13 @@
         <v>0.6380931723128356</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>20.95055916124402</v>
       </c>
       <c r="H46" t="n">
-        <v>5.366115696334839</v>
+        <v>5.366115696334836</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.3338652339669</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.53160369079531</v>
+        <v>56.53160369079529</v>
       </c>
       <c r="T46" t="n">
         <v>76.83209413774833</v>
       </c>
       <c r="U46" t="n">
-        <v>140.4552752973459</v>
+        <v>286.2511447716022</v>
       </c>
       <c r="V46" t="n">
         <v>106.3417738495717</v>
@@ -4198,10 +4198,10 @@
         <v>140.7271288623347</v>
       </c>
       <c r="X46" t="n">
-        <v>201.1890312741457</v>
+        <v>79.91378591478082</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>72.78878387783845</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36.40232520199298</v>
+        <v>1527.836296232554</v>
       </c>
       <c r="C11" t="n">
-        <v>36.40232520199298</v>
+        <v>1239.246237680307</v>
       </c>
       <c r="D11" t="n">
-        <v>36.40232520199298</v>
+        <v>961.3529974617206</v>
       </c>
       <c r="E11" t="n">
-        <v>36.40232520199298</v>
+        <v>961.3529974617206</v>
       </c>
       <c r="F11" t="n">
-        <v>36.40232520199298</v>
+        <v>630.7395510602771</v>
       </c>
       <c r="G11" t="n">
-        <v>36.40232520199298</v>
+        <v>294.4168325111407</v>
       </c>
       <c r="H11" t="n">
-        <v>36.40232520199298</v>
+        <v>60.58693984887137</v>
       </c>
       <c r="I11" t="n">
         <v>36.40232520199298</v>
@@ -5051,13 +5051,13 @@
         <v>676.1226902968211</v>
       </c>
       <c r="N11" t="n">
-        <v>939.1162999853527</v>
+        <v>1126.601464671484</v>
       </c>
       <c r="O11" t="n">
-        <v>1174.118446746021</v>
+        <v>1553.339849752522</v>
       </c>
       <c r="P11" t="n">
-        <v>1624.597221120684</v>
+        <v>1719.407744186977</v>
       </c>
       <c r="Q11" t="n">
         <v>1795.945070243422</v>
@@ -5069,22 +5069,22 @@
         <v>1753.220163463312</v>
       </c>
       <c r="T11" t="n">
-        <v>1620.511387746192</v>
+        <v>1753.220163463312</v>
       </c>
       <c r="U11" t="n">
-        <v>1447.223551265609</v>
+        <v>1753.220163463312</v>
       </c>
       <c r="V11" t="n">
-        <v>1196.533122310203</v>
+        <v>1527.836296232554</v>
       </c>
       <c r="W11" t="n">
-        <v>924.1369254282529</v>
+        <v>1527.836296232554</v>
       </c>
       <c r="X11" t="n">
-        <v>631.0436255553373</v>
+        <v>1527.836296232554</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.6297068779506</v>
+        <v>1527.836296232554</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>419.4455825276623</v>
+        <v>499.8180409158266</v>
       </c>
       <c r="C12" t="n">
         <v>325.3650116346996</v>
@@ -5145,25 +5145,25 @@
         <v>1812.046637273301</v>
       </c>
       <c r="S12" t="n">
-        <v>1666.481659532316</v>
+        <v>1746.85411792048</v>
       </c>
       <c r="T12" t="n">
-        <v>1470.339061372043</v>
+        <v>1550.711519760207</v>
       </c>
       <c r="U12" t="n">
-        <v>1242.214093758284</v>
+        <v>1322.586552146449</v>
       </c>
       <c r="V12" t="n">
-        <v>1007.061985526542</v>
+        <v>1167.80690230287</v>
       </c>
       <c r="W12" t="n">
-        <v>833.1970871865044</v>
+        <v>922.9002601300529</v>
       </c>
       <c r="X12" t="n">
-        <v>634.6763015363558</v>
+        <v>795.4212183126842</v>
       </c>
       <c r="Y12" t="n">
-        <v>507.2884611595662</v>
+        <v>587.6609195477304</v>
       </c>
     </row>
     <row r="13">
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.9861862334159</v>
+        <v>527.9861862334163</v>
       </c>
       <c r="C13" t="n">
-        <v>439.4224616936731</v>
+        <v>439.4224616936737</v>
       </c>
       <c r="D13" t="n">
-        <v>369.6782806695016</v>
+        <v>369.6782806695021</v>
       </c>
       <c r="E13" t="n">
-        <v>302.1376454752727</v>
+        <v>302.1376454752732</v>
       </c>
       <c r="F13" t="n">
-        <v>235.6201563655266</v>
+        <v>235.6201563655271</v>
       </c>
       <c r="G13" t="n">
         <v>147.5618787582359</v>
@@ -5242,7 +5242,7 @@
         <v>769.6823134308577</v>
       </c>
       <c r="Y13" t="n">
-        <v>629.2621926754914</v>
+        <v>629.2621926754919</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>697.4147822852879</v>
+        <v>1007.181655872935</v>
       </c>
       <c r="C14" t="n">
-        <v>408.8247237330403</v>
+        <v>718.5915973206877</v>
       </c>
       <c r="D14" t="n">
-        <v>130.931483514454</v>
+        <v>718.5915973206877</v>
       </c>
       <c r="E14" t="n">
-        <v>74.23424808874226</v>
+        <v>638.6775871524549</v>
       </c>
       <c r="F14" t="n">
-        <v>74.23424808874226</v>
+        <v>308.0641407510116</v>
       </c>
       <c r="G14" t="n">
-        <v>74.23424808874226</v>
+        <v>308.0641407510116</v>
       </c>
       <c r="H14" t="n">
         <v>74.23424808874226</v>
@@ -5282,16 +5282,16 @@
         <v>235.452761317646</v>
       </c>
       <c r="L14" t="n">
-        <v>435.5044791569738</v>
+        <v>848.9890815619196</v>
       </c>
       <c r="M14" t="n">
-        <v>689.7699985366922</v>
+        <v>1468.353295404988</v>
       </c>
       <c r="N14" t="n">
-        <v>1094.938373692218</v>
+        <v>1731.346905093519</v>
       </c>
       <c r="O14" t="n">
-        <v>1706.932699903004</v>
+        <v>1966.349051854188</v>
       </c>
       <c r="P14" t="n">
         <v>2191.581315427227</v>
@@ -5315,13 +5315,13 @@
         <v>1878.898534303758</v>
       </c>
       <c r="W14" t="n">
-        <v>1606.502337421809</v>
+        <v>1606.502337421808</v>
       </c>
       <c r="X14" t="n">
         <v>1313.409037548893</v>
       </c>
       <c r="Y14" t="n">
-        <v>1003.642163961245</v>
+        <v>1313.409037548893</v>
       </c>
     </row>
     <row r="15">
@@ -5334,22 +5334,22 @@
         <v>851.3629048013408</v>
       </c>
       <c r="C15" t="n">
-        <v>676.9098755202139</v>
+        <v>699.174609147281</v>
       </c>
       <c r="D15" t="n">
-        <v>527.9754658589626</v>
+        <v>550.2401994860297</v>
       </c>
       <c r="E15" t="n">
-        <v>368.7380108535071</v>
+        <v>391.0027444805742</v>
       </c>
       <c r="F15" t="n">
-        <v>222.2034528803921</v>
+        <v>244.4681865074592</v>
       </c>
       <c r="G15" t="n">
-        <v>148.9368536359429</v>
+        <v>187.6093093559964</v>
       </c>
       <c r="H15" t="n">
-        <v>50.04963344186409</v>
+        <v>88.72208916191759</v>
       </c>
       <c r="I15" t="n">
         <v>50.04963344186409</v>
@@ -5364,13 +5364,13 @@
         <v>346.1154571178536</v>
       </c>
       <c r="M15" t="n">
-        <v>965.4796709609217</v>
+        <v>577.7785625978261</v>
       </c>
       <c r="N15" t="n">
-        <v>1217.682854423612</v>
+        <v>1183.784859804045</v>
       </c>
       <c r="O15" t="n">
-        <v>1816.103396285974</v>
+        <v>1782.205401666407</v>
       </c>
       <c r="P15" t="n">
         <v>2245.487576520452</v>
@@ -5495,13 +5495,13 @@
         <v>1118.700487474691</v>
       </c>
       <c r="D17" t="n">
-        <v>921.1797056442689</v>
+        <v>934.7416517121364</v>
       </c>
       <c r="E17" t="n">
-        <v>696.1363698223531</v>
+        <v>709.6983158902207</v>
       </c>
       <c r="F17" t="n">
-        <v>459.4573278769413</v>
+        <v>459.4573278769416</v>
       </c>
       <c r="G17" t="n">
         <v>203.5070677159692</v>
@@ -5519,19 +5519,19 @@
         <v>235.452761317646</v>
       </c>
       <c r="L17" t="n">
-        <v>589.572729610736</v>
+        <v>848.9890815619196</v>
       </c>
       <c r="M17" t="n">
-        <v>1208.936943453804</v>
+        <v>1103.254600941638</v>
       </c>
       <c r="N17" t="n">
-        <v>1471.930553142336</v>
+        <v>1366.24821063017</v>
       </c>
       <c r="O17" t="n">
-        <v>1706.932699903004</v>
+        <v>1978.242536840956</v>
       </c>
       <c r="P17" t="n">
-        <v>2191.581315427227</v>
+        <v>2401.773156180533</v>
       </c>
       <c r="Q17" t="n">
         <v>2478.310482236977</v>
@@ -5577,10 +5577,10 @@
         <v>527.9754658589626</v>
       </c>
       <c r="E18" t="n">
-        <v>368.7380108535071</v>
+        <v>471.3752028687385</v>
       </c>
       <c r="F18" t="n">
-        <v>222.2034528803921</v>
+        <v>324.8406448956234</v>
       </c>
       <c r="G18" t="n">
         <v>187.6093093559964</v>
@@ -5604,7 +5604,7 @@
         <v>577.7785625978261</v>
       </c>
       <c r="N18" t="n">
-        <v>1183.784859804045</v>
+        <v>1197.142776440894</v>
       </c>
       <c r="O18" t="n">
         <v>1782.205401666407</v>
@@ -5695,28 +5695,28 @@
         <v>1208.89494617308</v>
       </c>
       <c r="R19" t="n">
-        <v>1208.89494617308</v>
+        <v>1155.124874458348</v>
       </c>
       <c r="S19" t="n">
-        <v>1165.268677934205</v>
+        <v>950.7536894431441</v>
       </c>
       <c r="T19" t="n">
-        <v>1047.366792074584</v>
+        <v>886.6218752982558</v>
       </c>
       <c r="U19" t="n">
-        <v>758.2242215982184</v>
+        <v>758.2242215982183</v>
       </c>
       <c r="V19" t="n">
-        <v>664.2846501686599</v>
+        <v>503.5397333923314</v>
       </c>
       <c r="W19" t="n">
-        <v>535.6123969080278</v>
+        <v>374.8674801316993</v>
       </c>
       <c r="X19" t="n">
-        <v>468.3677627863389</v>
+        <v>307.6228460100104</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.5751836428087</v>
+        <v>86.8302668664803</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1326.918087638775</v>
+        <v>1340.480033706642</v>
       </c>
       <c r="C20" t="n">
-        <v>1118.700487474691</v>
+        <v>1132.262433542558</v>
       </c>
       <c r="D20" t="n">
-        <v>921.1797056442691</v>
+        <v>934.7416517121362</v>
       </c>
       <c r="E20" t="n">
-        <v>696.1363698223533</v>
+        <v>709.6983158902204</v>
       </c>
       <c r="F20" t="n">
-        <v>459.4573278769415</v>
+        <v>459.4573278769413</v>
       </c>
       <c r="G20" t="n">
         <v>203.5070677159692</v>
@@ -5750,28 +5750,28 @@
         <v>50.04963344186409</v>
       </c>
       <c r="J20" t="n">
-        <v>103.9426226159522</v>
+        <v>271.3482716363052</v>
       </c>
       <c r="K20" t="n">
-        <v>235.452761317646</v>
+        <v>723.7623687834522</v>
       </c>
       <c r="L20" t="n">
-        <v>435.5044791569738</v>
+        <v>923.81408662278</v>
       </c>
       <c r="M20" t="n">
-        <v>689.7699985366922</v>
+        <v>1543.178300465848</v>
       </c>
       <c r="N20" t="n">
-        <v>1094.938373692218</v>
+        <v>1806.17191015438</v>
       </c>
       <c r="O20" t="n">
-        <v>1706.932699903004</v>
+        <v>2259.876451602305</v>
       </c>
       <c r="P20" t="n">
-        <v>2191.581315427227</v>
+        <v>2425.94434603676</v>
       </c>
       <c r="Q20" t="n">
-        <v>2478.310482236977</v>
+        <v>2502.481672093204</v>
       </c>
       <c r="R20" t="n">
         <v>2502.481672093204</v>
@@ -5783,19 +5783,19 @@
         <v>2450.145354764249</v>
       </c>
       <c r="U20" t="n">
-        <v>2357.229976671831</v>
+        <v>2357.22997667183</v>
       </c>
       <c r="V20" t="n">
         <v>2186.912006104588</v>
       </c>
       <c r="W20" t="n">
-        <v>1994.888267610803</v>
+        <v>1994.888267610802</v>
       </c>
       <c r="X20" t="n">
-        <v>1782.167426126051</v>
+        <v>1795.729372193918</v>
       </c>
       <c r="Y20" t="n">
-        <v>1552.773010926568</v>
+        <v>1566.334956994435</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>84.97211734076504</v>
       </c>
       <c r="H21" t="n">
-        <v>84.97211734076504</v>
+        <v>50.04963344186409</v>
       </c>
       <c r="I21" t="n">
         <v>50.04963344186409</v>
@@ -5841,10 +5841,10 @@
         <v>577.7785625978261</v>
       </c>
       <c r="N21" t="n">
-        <v>1183.784859804045</v>
+        <v>1197.142776440894</v>
       </c>
       <c r="O21" t="n">
-        <v>1782.205401666407</v>
+        <v>1795.563318303256</v>
       </c>
       <c r="P21" t="n">
         <v>2245.487576520452</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>226.6716355888975</v>
+        <v>65.92671881256904</v>
       </c>
       <c r="C22" t="n">
         <v>57.73545266099056</v>
@@ -5932,25 +5932,25 @@
         <v>1208.89494617308</v>
       </c>
       <c r="R22" t="n">
-        <v>1086.335486340791</v>
+        <v>1155.124874458348</v>
       </c>
       <c r="S22" t="n">
-        <v>1042.709218101915</v>
+        <v>1111.498606219473</v>
       </c>
       <c r="T22" t="n">
-        <v>978.5774039570268</v>
+        <v>1047.366792074584</v>
       </c>
       <c r="U22" t="n">
-        <v>850.1797502569893</v>
+        <v>758.2242215982183</v>
       </c>
       <c r="V22" t="n">
-        <v>756.2401788274309</v>
+        <v>503.5397333923314</v>
       </c>
       <c r="W22" t="n">
-        <v>627.5679255667987</v>
+        <v>374.8674801316993</v>
       </c>
       <c r="X22" t="n">
-        <v>468.3677627863389</v>
+        <v>307.6228460100104</v>
       </c>
       <c r="Y22" t="n">
         <v>247.5751836428087</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1340.756808116191</v>
+        <v>1340.75680811619</v>
       </c>
       <c r="C23" t="n">
         <v>1132.539207952107</v>
       </c>
       <c r="D23" t="n">
-        <v>935.0184261216851</v>
+        <v>935.0184261216847</v>
       </c>
       <c r="E23" t="n">
-        <v>709.9750902997694</v>
+        <v>709.9750902997689</v>
       </c>
       <c r="F23" t="n">
-        <v>459.7341022864903</v>
+        <v>459.73410228649</v>
       </c>
       <c r="G23" t="n">
         <v>203.7838421255175</v>
@@ -5990,25 +5990,25 @@
         <v>104.2193970255005</v>
       </c>
       <c r="K23" t="n">
-        <v>235.7295357271944</v>
+        <v>556.6334941726475</v>
       </c>
       <c r="L23" t="n">
-        <v>435.7812535665221</v>
+        <v>756.6852120119752</v>
       </c>
       <c r="M23" t="n">
-        <v>690.0467729462405</v>
+        <v>1379.474509173204</v>
       </c>
       <c r="N23" t="n">
-        <v>1108.777094169634</v>
+        <v>1642.468118861735</v>
       </c>
       <c r="O23" t="n">
-        <v>1720.77142038042</v>
+        <v>2254.462445072521</v>
       </c>
       <c r="P23" t="n">
-        <v>2205.420035904643</v>
+        <v>2439.783066514176</v>
       </c>
       <c r="Q23" t="n">
-        <v>2492.149202714394</v>
+        <v>2516.320392570621</v>
       </c>
       <c r="R23" t="n">
         <v>2516.320392570621</v>
@@ -6032,7 +6032,7 @@
         <v>1796.006146603467</v>
       </c>
       <c r="Y23" t="n">
-        <v>1566.611731403984</v>
+        <v>1566.611731403983</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>382.5767313309233</v>
       </c>
       <c r="F24" t="n">
-        <v>236.0421733578083</v>
+        <v>325.1174193051718</v>
       </c>
       <c r="G24" t="n">
-        <v>98.81083781818128</v>
+        <v>187.8860837655447</v>
       </c>
       <c r="H24" t="n">
-        <v>50.32640785141241</v>
+        <v>88.99886357146592</v>
       </c>
       <c r="I24" t="n">
         <v>50.32640785141241</v>
       </c>
       <c r="J24" t="n">
-        <v>63.60685604256948</v>
+        <v>188.4369810295742</v>
       </c>
       <c r="K24" t="n">
-        <v>164.4600820048474</v>
+        <v>289.2902069918522</v>
       </c>
       <c r="L24" t="n">
-        <v>346.3922315274018</v>
+        <v>838.3542983648312</v>
       </c>
       <c r="M24" t="n">
-        <v>578.0553370073743</v>
+        <v>1461.14359552606</v>
       </c>
       <c r="N24" t="n">
-        <v>1197.623580281461</v>
+        <v>1713.34677898875</v>
       </c>
       <c r="O24" t="n">
-        <v>1796.044122143823</v>
+        <v>2004.020637002314</v>
       </c>
       <c r="P24" t="n">
-        <v>2259.326296997868</v>
+        <v>2467.302811856359</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.320392570621</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.3201326344531</v>
+        <v>441.4633984895067</v>
       </c>
       <c r="C25" t="n">
-        <v>208.1288664828746</v>
+        <v>272.5272155615999</v>
       </c>
       <c r="D25" t="n">
-        <v>58.01222707053888</v>
+        <v>122.4105761492641</v>
       </c>
       <c r="E25" t="n">
-        <v>58.01222707053888</v>
+        <v>122.4105761492641</v>
       </c>
       <c r="F25" t="n">
         <v>58.01222707053888</v>
@@ -6169,28 +6169,28 @@
         <v>1209.171720582629</v>
       </c>
       <c r="R25" t="n">
-        <v>1086.612260750339</v>
+        <v>1209.171720582629</v>
       </c>
       <c r="S25" t="n">
-        <v>1042.985992511464</v>
+        <v>1004.800535567425</v>
       </c>
       <c r="T25" t="n">
-        <v>978.8541783665754</v>
+        <v>940.6687214225367</v>
       </c>
       <c r="U25" t="n">
-        <v>850.4565246665379</v>
+        <v>812.2710677224992</v>
       </c>
       <c r="V25" t="n">
-        <v>653.9331472142155</v>
+        <v>718.3314962929408</v>
       </c>
       <c r="W25" t="n">
-        <v>364.515977177255</v>
+        <v>589.6592430323086</v>
       </c>
       <c r="X25" t="n">
-        <v>297.271343055566</v>
+        <v>522.4146089106197</v>
       </c>
       <c r="Y25" t="n">
-        <v>237.2236806883644</v>
+        <v>462.366946543418</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>1870.358268404897</v>
       </c>
       <c r="C26" t="n">
-        <v>1581.76820985265</v>
+        <v>1581.768209852649</v>
       </c>
       <c r="D26" t="n">
-        <v>1303.874969634064</v>
+        <v>1303.874969634063</v>
       </c>
       <c r="E26" t="n">
-        <v>998.4591754239839</v>
+        <v>998.4591754239834</v>
       </c>
       <c r="F26" t="n">
-        <v>667.8457290225406</v>
+        <v>667.8457290225401</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5230104734042</v>
+        <v>331.5230104734038</v>
       </c>
       <c r="H26" t="n">
-        <v>97.69311781113443</v>
+        <v>97.69311781113446</v>
       </c>
       <c r="I26" t="n">
         <v>73.50850316425628</v>
       </c>
       <c r="J26" t="n">
-        <v>127.4014923383444</v>
+        <v>294.8071413586974</v>
       </c>
       <c r="K26" t="n">
-        <v>259.0945571735352</v>
+        <v>747.2212385058444</v>
       </c>
       <c r="L26" t="n">
-        <v>872.6308774178088</v>
+        <v>1360.757558750118</v>
       </c>
       <c r="M26" t="n">
-        <v>1571.914794955431</v>
+        <v>2060.041476287741</v>
       </c>
       <c r="N26" t="n">
-        <v>2267.881859811827</v>
+        <v>2502.24489042136</v>
       </c>
       <c r="O26" t="n">
-        <v>2879.876186022614</v>
+        <v>3114.239216632147</v>
       </c>
       <c r="P26" t="n">
-        <v>3364.524801546836</v>
+        <v>3598.887832156369</v>
       </c>
       <c r="Q26" t="n">
-        <v>3651.253968356587</v>
+        <v>3675.425158212814</v>
       </c>
       <c r="R26" t="n">
         <v>3675.425158212814</v>
@@ -6260,10 +6260,10 @@
         <v>3302.532449378774</v>
       </c>
       <c r="V26" t="n">
-        <v>3051.842020423367</v>
+        <v>3051.842020423368</v>
       </c>
       <c r="W26" t="n">
-        <v>2779.445823541417</v>
+        <v>2779.445823541418</v>
       </c>
       <c r="X26" t="n">
         <v>2486.352523668502</v>
@@ -6303,22 +6303,22 @@
         <v>73.50850316425628</v>
       </c>
       <c r="J27" t="n">
-        <v>86.78895135541335</v>
+        <v>211.6190763424181</v>
       </c>
       <c r="K27" t="n">
-        <v>187.6421773176913</v>
+        <v>574.2928869471489</v>
       </c>
       <c r="L27" t="n">
-        <v>369.5743268402457</v>
+        <v>756.2250364697032</v>
       </c>
       <c r="M27" t="n">
-        <v>601.2374323202182</v>
+        <v>1288.330624516361</v>
       </c>
       <c r="N27" t="n">
-        <v>1309.880921541669</v>
+        <v>2015.082758579169</v>
       </c>
       <c r="O27" t="n">
-        <v>1908.30146340403</v>
+        <v>2223.579604357568</v>
       </c>
       <c r="P27" t="n">
         <v>2371.583638258076</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.092364195679</v>
+        <v>565.0923641956791</v>
       </c>
       <c r="C28" t="n">
         <v>476.5286396559364</v>
@@ -6382,31 +6382,31 @@
         <v>73.50850316425628</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9658000670167</v>
+        <v>146.9658000670179</v>
       </c>
       <c r="K28" t="n">
-        <v>346.8402737803086</v>
+        <v>346.8402737803098</v>
       </c>
       <c r="L28" t="n">
-        <v>636.1078879636177</v>
+        <v>636.1078879636189</v>
       </c>
       <c r="M28" t="n">
-        <v>947.2070656658262</v>
+        <v>947.2070656658273</v>
       </c>
       <c r="N28" t="n">
-        <v>1258.216663663532</v>
+        <v>1258.216663663533</v>
       </c>
       <c r="O28" t="n">
-        <v>1535.481458529688</v>
+        <v>1535.481458529689</v>
       </c>
       <c r="P28" t="n">
-        <v>1760.57780403232</v>
+        <v>1760.577804032321</v>
       </c>
       <c r="Q28" t="n">
         <v>1857.222438061912</v>
       </c>
       <c r="R28" t="n">
-        <v>1815.035436617786</v>
+        <v>1815.035436617787</v>
       </c>
       <c r="S28" t="n">
         <v>1691.036709990747</v>
@@ -6415,19 +6415,19 @@
         <v>1546.532437457694</v>
       </c>
       <c r="U28" t="n">
-        <v>1337.762325369492</v>
+        <v>1337.762325369493</v>
       </c>
       <c r="V28" t="n">
         <v>1163.45029555177</v>
       </c>
       <c r="W28" t="n">
-        <v>954.4055839029734</v>
+        <v>954.4055839029736</v>
       </c>
       <c r="X28" t="n">
-        <v>806.7884913931202</v>
+        <v>806.7884913931205</v>
       </c>
       <c r="Y28" t="n">
-        <v>666.3683706377544</v>
+        <v>666.3683706377547</v>
       </c>
     </row>
     <row r="29">
@@ -6446,16 +6446,16 @@
         <v>1303.874969634063</v>
       </c>
       <c r="E29" t="n">
-        <v>998.4591754239834</v>
+        <v>998.4591754239832</v>
       </c>
       <c r="F29" t="n">
-        <v>667.8457290225401</v>
+        <v>667.8457290225399</v>
       </c>
       <c r="G29" t="n">
-        <v>331.5230104734038</v>
+        <v>331.5230104734035</v>
       </c>
       <c r="H29" t="n">
-        <v>97.69311781113444</v>
+        <v>97.69311781113447</v>
       </c>
       <c r="I29" t="n">
         <v>73.5085031642563</v>
@@ -6467,19 +6467,19 @@
         <v>579.8155894854914</v>
       </c>
       <c r="L29" t="n">
-        <v>872.6308774178093</v>
+        <v>1193.351909729765</v>
       </c>
       <c r="M29" t="n">
-        <v>1571.914794955432</v>
+        <v>1892.635827267387</v>
       </c>
       <c r="N29" t="n">
-        <v>2267.881859811828</v>
+        <v>2588.602892123783</v>
       </c>
       <c r="O29" t="n">
-        <v>2879.876186022614</v>
+        <v>3200.597218334569</v>
       </c>
       <c r="P29" t="n">
-        <v>3364.524801546837</v>
+        <v>3574.716642300143</v>
       </c>
       <c r="Q29" t="n">
         <v>3651.253968356587</v>
@@ -6503,7 +6503,7 @@
         <v>2779.445823541418</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.352523668503</v>
+        <v>2486.352523668502</v>
       </c>
       <c r="Y29" t="n">
         <v>2176.585650080855</v>
@@ -6540,19 +6540,19 @@
         <v>73.5085031642563</v>
       </c>
       <c r="J30" t="n">
-        <v>86.78895135541336</v>
+        <v>211.6190763424181</v>
       </c>
       <c r="K30" t="n">
-        <v>187.6421773176913</v>
+        <v>572.9581660479141</v>
       </c>
       <c r="L30" t="n">
-        <v>369.5743268402457</v>
+        <v>754.8903155704685</v>
       </c>
       <c r="M30" t="n">
-        <v>601.2374323202182</v>
+        <v>1447.601434162941</v>
       </c>
       <c r="N30" t="n">
-        <v>1309.880921541669</v>
+        <v>1699.804617625631</v>
       </c>
       <c r="O30" t="n">
         <v>1908.30146340403</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.092364195679</v>
+        <v>565.0923641956791</v>
       </c>
       <c r="C31" t="n">
         <v>476.5286396559364</v>
@@ -6622,28 +6622,28 @@
         <v>146.9658000670179</v>
       </c>
       <c r="K31" t="n">
-        <v>346.8402737803086</v>
+        <v>346.8402737803095</v>
       </c>
       <c r="L31" t="n">
-        <v>636.1078879636177</v>
+        <v>636.1078879636186</v>
       </c>
       <c r="M31" t="n">
-        <v>947.2070656658262</v>
+        <v>947.2070656658271</v>
       </c>
       <c r="N31" t="n">
-        <v>1258.216663663532</v>
+        <v>1258.216663663533</v>
       </c>
       <c r="O31" t="n">
-        <v>1535.481458529688</v>
+        <v>1535.481458529689</v>
       </c>
       <c r="P31" t="n">
-        <v>1760.57780403232</v>
+        <v>1760.577804032321</v>
       </c>
       <c r="Q31" t="n">
         <v>1857.222438061912</v>
       </c>
       <c r="R31" t="n">
-        <v>1815.035436617786</v>
+        <v>1815.035436617787</v>
       </c>
       <c r="S31" t="n">
         <v>1691.036709990747</v>
@@ -6652,19 +6652,19 @@
         <v>1546.532437457694</v>
       </c>
       <c r="U31" t="n">
-        <v>1337.762325369492</v>
+        <v>1337.762325369493</v>
       </c>
       <c r="V31" t="n">
         <v>1163.45029555177</v>
       </c>
       <c r="W31" t="n">
-        <v>954.4055839029734</v>
+        <v>954.4055839029736</v>
       </c>
       <c r="X31" t="n">
-        <v>806.7884913931202</v>
+        <v>806.7884913931205</v>
       </c>
       <c r="Y31" t="n">
-        <v>666.3683706377544</v>
+        <v>666.3683706377547</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1870.358268404898</v>
+        <v>1870.358268404897</v>
       </c>
       <c r="C32" t="n">
-        <v>1581.76820985265</v>
+        <v>1581.768209852649</v>
       </c>
       <c r="D32" t="n">
-        <v>1303.874969634064</v>
+        <v>1303.874969634063</v>
       </c>
       <c r="E32" t="n">
-        <v>998.4591754239843</v>
+        <v>998.459175423983</v>
       </c>
       <c r="F32" t="n">
-        <v>667.845729022541</v>
+        <v>667.8457290225397</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5230104734046</v>
+        <v>331.5230104734032</v>
       </c>
       <c r="H32" t="n">
-        <v>97.69311781113451</v>
+        <v>97.69311781113448</v>
       </c>
       <c r="I32" t="n">
         <v>73.5085031642563</v>
@@ -6731,19 +6731,19 @@
         <v>3475.820285859358</v>
       </c>
       <c r="U32" t="n">
-        <v>3302.532449378775</v>
+        <v>3302.532449378774</v>
       </c>
       <c r="V32" t="n">
-        <v>3051.842020423368</v>
+        <v>3051.842020423367</v>
       </c>
       <c r="W32" t="n">
-        <v>2779.445823541419</v>
+        <v>2779.445823541417</v>
       </c>
       <c r="X32" t="n">
-        <v>2486.352523668503</v>
+        <v>2486.352523668501</v>
       </c>
       <c r="Y32" t="n">
-        <v>2176.585650080855</v>
+        <v>2176.585650080854</v>
       </c>
     </row>
     <row r="33">
@@ -6780,22 +6780,22 @@
         <v>86.78895135541336</v>
       </c>
       <c r="K33" t="n">
-        <v>187.6421773176913</v>
+        <v>449.4627619601442</v>
       </c>
       <c r="L33" t="n">
-        <v>369.5743268402457</v>
+        <v>631.3949114826986</v>
       </c>
       <c r="M33" t="n">
-        <v>601.2374323202182</v>
+        <v>1324.106030075171</v>
       </c>
       <c r="N33" t="n">
-        <v>1309.880921541669</v>
+        <v>1833.135577353697</v>
       </c>
       <c r="O33" t="n">
-        <v>1908.30146340403</v>
+        <v>2431.556119216059</v>
       </c>
       <c r="P33" t="n">
-        <v>2371.583638258076</v>
+        <v>2579.560153116566</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.577733830828</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.0923641956795</v>
+        <v>565.0923641956797</v>
       </c>
       <c r="C34" t="n">
-        <v>476.5286396559367</v>
+        <v>476.528639655937</v>
       </c>
       <c r="D34" t="n">
-        <v>406.7844586317652</v>
+        <v>406.7844586317655</v>
       </c>
       <c r="E34" t="n">
-        <v>339.2438234375362</v>
+        <v>339.2438234375365</v>
       </c>
       <c r="F34" t="n">
-        <v>272.72633432779</v>
+        <v>272.7263343277904</v>
       </c>
       <c r="G34" t="n">
-        <v>184.6680567204993</v>
+        <v>184.6680567204996</v>
       </c>
       <c r="H34" t="n">
-        <v>112.3516411989754</v>
+        <v>112.3516411989758</v>
       </c>
       <c r="I34" t="n">
         <v>73.5085031642563</v>
@@ -6859,13 +6859,13 @@
         <v>146.9658000670179</v>
       </c>
       <c r="K34" t="n">
-        <v>346.8402737803096</v>
+        <v>346.8402737803098</v>
       </c>
       <c r="L34" t="n">
-        <v>636.1078879636187</v>
+        <v>636.1078879636189</v>
       </c>
       <c r="M34" t="n">
-        <v>947.2070656658273</v>
+        <v>947.2070656658271</v>
       </c>
       <c r="N34" t="n">
         <v>1258.216663663533</v>
@@ -6880,7 +6880,7 @@
         <v>1857.222438061912</v>
       </c>
       <c r="R34" t="n">
-        <v>1815.035436617787</v>
+        <v>1815.035436617788</v>
       </c>
       <c r="S34" t="n">
         <v>1691.036709990748</v>
@@ -6889,19 +6889,19 @@
         <v>1546.532437457695</v>
       </c>
       <c r="U34" t="n">
-        <v>1337.762325369493</v>
+        <v>1337.762325369494</v>
       </c>
       <c r="V34" t="n">
         <v>1163.450295551771</v>
       </c>
       <c r="W34" t="n">
-        <v>954.4055839029741</v>
+        <v>954.4055839029743</v>
       </c>
       <c r="X34" t="n">
-        <v>806.7884913931209</v>
+        <v>806.7884913931211</v>
       </c>
       <c r="Y34" t="n">
-        <v>666.368370637755</v>
+        <v>666.3683706377552</v>
       </c>
     </row>
     <row r="35">
@@ -6911,73 +6911,73 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1425.190339908249</v>
+        <v>1425.19033990825</v>
       </c>
       <c r="C35" t="n">
         <v>1203.496377992339</v>
       </c>
       <c r="D35" t="n">
-        <v>992.4992344100898</v>
+        <v>992.4992344100903</v>
       </c>
       <c r="E35" t="n">
-        <v>753.9795368363469</v>
+        <v>753.9795368363473</v>
       </c>
       <c r="F35" t="n">
-        <v>490.2621870712408</v>
+        <v>490.2621870712411</v>
       </c>
       <c r="G35" t="n">
-        <v>220.8355651584415</v>
+        <v>220.8355651584417</v>
       </c>
       <c r="H35" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250943</v>
       </c>
       <c r="I35" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250943</v>
       </c>
       <c r="J35" t="n">
-        <v>107.7947583065975</v>
+        <v>275.2004073269506</v>
       </c>
       <c r="K35" t="n">
-        <v>239.3048970082913</v>
+        <v>727.6145044740975</v>
       </c>
       <c r="L35" t="n">
-        <v>439.3566148476191</v>
+        <v>927.6662223134254</v>
       </c>
       <c r="M35" t="n">
-        <v>693.6221342273375</v>
+        <v>1367.303459481948</v>
       </c>
       <c r="N35" t="n">
-        <v>1287.545158224482</v>
+        <v>1630.29706917048</v>
       </c>
       <c r="O35" t="n">
-        <v>1899.539484435269</v>
+        <v>2242.291395381266</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.188099959491</v>
+        <v>2408.359289815721</v>
       </c>
       <c r="Q35" t="n">
-        <v>2670.917266769242</v>
+        <v>2695.088456625471</v>
       </c>
       <c r="R35" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.088456625471</v>
       </c>
       <c r="S35" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.088456625471</v>
       </c>
       <c r="T35" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U35" t="n">
-        <v>2522.884037700441</v>
+        <v>2522.884037700442</v>
       </c>
       <c r="V35" t="n">
-        <v>2339.089705381371</v>
+        <v>2339.089705381372</v>
       </c>
       <c r="W35" t="n">
         <v>2133.589605135759</v>
       </c>
       <c r="X35" t="n">
-        <v>1907.39240189918</v>
+        <v>1907.392401899181</v>
       </c>
       <c r="Y35" t="n">
         <v>1664.52162494787</v>
@@ -6999,40 +6999,40 @@
         <v>634.4647935648393</v>
       </c>
       <c r="E36" t="n">
-        <v>475.2273385593837</v>
+        <v>475.2273385593838</v>
       </c>
       <c r="F36" t="n">
-        <v>328.6927805862687</v>
+        <v>328.6927805862688</v>
       </c>
       <c r="G36" t="n">
-        <v>191.4614450466417</v>
+        <v>191.4614450466418</v>
       </c>
       <c r="H36" t="n">
-        <v>92.57422485256288</v>
+        <v>92.57422485256293</v>
       </c>
       <c r="I36" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250943</v>
       </c>
       <c r="J36" t="n">
-        <v>67.18221732366644</v>
+        <v>192.0123423106712</v>
       </c>
       <c r="K36" t="n">
-        <v>168.0354432859444</v>
+        <v>345.2271754714769</v>
       </c>
       <c r="L36" t="n">
-        <v>349.9675928084988</v>
+        <v>894.2912668444559</v>
       </c>
       <c r="M36" t="n">
-        <v>623.2397944951181</v>
+        <v>1561.32565985926</v>
       </c>
       <c r="N36" t="n">
-        <v>1290.274187509922</v>
+        <v>1813.52884332195</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.694729372283</v>
+        <v>2411.949385184312</v>
       </c>
       <c r="P36" t="n">
-        <v>2351.976904226328</v>
+        <v>2559.953419084819</v>
       </c>
       <c r="Q36" t="n">
         <v>2608.970999799081</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.6445198377813</v>
+        <v>105.6445198377818</v>
       </c>
       <c r="C37" t="n">
-        <v>83.97689193437574</v>
+        <v>83.97689193437614</v>
       </c>
       <c r="D37" t="n">
-        <v>81.12880754654138</v>
+        <v>81.12880754654169</v>
       </c>
       <c r="E37" t="n">
-        <v>80.48426898864963</v>
+        <v>80.48426898864986</v>
       </c>
       <c r="F37" t="n">
-        <v>80.48426898864963</v>
+        <v>80.48426898864986</v>
       </c>
       <c r="G37" t="n">
-        <v>59.32208801769608</v>
+        <v>59.32208801769622</v>
       </c>
       <c r="H37" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250943</v>
       </c>
       <c r="I37" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250943</v>
       </c>
       <c r="J37" t="n">
-        <v>53.90176913250938</v>
+        <v>53.90176913250943</v>
       </c>
       <c r="K37" t="n">
-        <v>175.0031963795615</v>
+        <v>175.0031963795616</v>
       </c>
       <c r="L37" t="n">
-        <v>385.4977640966308</v>
+        <v>385.4977640966309</v>
       </c>
       <c r="M37" t="n">
-        <v>617.8238953325995</v>
+        <v>617.8238953325997</v>
       </c>
       <c r="N37" t="n">
-        <v>850.060446864066</v>
+        <v>850.0604468640662</v>
       </c>
       <c r="O37" t="n">
-        <v>1048.552195263981</v>
+        <v>1048.552195263982</v>
       </c>
       <c r="P37" t="n">
         <v>1194.875494300374</v>
       </c>
       <c r="Q37" t="n">
-        <v>1212.747081863725</v>
+        <v>1212.747081863726</v>
       </c>
       <c r="R37" t="n">
-        <v>1212.747081863725</v>
+        <v>1212.747081863726</v>
       </c>
       <c r="S37" t="n">
-        <v>1155.644451873023</v>
+        <v>1057.853299227493</v>
       </c>
       <c r="T37" t="n">
-        <v>930.7677209518063</v>
+        <v>980.2451233307772</v>
       </c>
       <c r="U37" t="n">
-        <v>788.8937054999417</v>
+        <v>838.3711078789125</v>
       </c>
       <c r="V37" t="n">
-        <v>681.4777723185562</v>
+        <v>583.6866196730257</v>
       </c>
       <c r="W37" t="n">
-        <v>539.3291573060969</v>
+        <v>294.2694496360651</v>
       </c>
       <c r="X37" t="n">
-        <v>458.6081614325809</v>
+        <v>213.5484537625491</v>
       </c>
       <c r="Y37" t="n">
-        <v>237.8155822890508</v>
+        <v>140.0244296435202</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7154,70 @@
         <v>1203.496377992339</v>
       </c>
       <c r="D38" t="n">
-        <v>992.4992344100895</v>
+        <v>992.4992344100898</v>
       </c>
       <c r="E38" t="n">
-        <v>753.9795368363466</v>
+        <v>753.9795368363468</v>
       </c>
       <c r="F38" t="n">
-        <v>490.2621870712404</v>
+        <v>490.2621870712405</v>
       </c>
       <c r="G38" t="n">
-        <v>220.8355651584416</v>
+        <v>220.8355651584417</v>
       </c>
       <c r="H38" t="n">
-        <v>53.90176913250937</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I38" t="n">
-        <v>53.90176913250937</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J38" t="n">
-        <v>107.7947583065975</v>
+        <v>260.3183295896596</v>
       </c>
       <c r="K38" t="n">
-        <v>239.3048970082913</v>
+        <v>391.8284682913534</v>
       </c>
       <c r="L38" t="n">
-        <v>439.3566148476191</v>
+        <v>591.8801861306812</v>
       </c>
       <c r="M38" t="n">
-        <v>693.6221342273375</v>
+        <v>1258.914579145485</v>
       </c>
       <c r="N38" t="n">
-        <v>1287.545158224482</v>
+        <v>1521.908188834017</v>
       </c>
       <c r="O38" t="n">
-        <v>1899.539484435268</v>
+        <v>2133.902515044803</v>
       </c>
       <c r="P38" t="n">
-        <v>2384.188099959491</v>
+        <v>2618.551130569026</v>
       </c>
       <c r="Q38" t="n">
-        <v>2670.917266769241</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="R38" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="S38" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="T38" t="n">
-        <v>2629.275777544686</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U38" t="n">
-        <v>2522.88403770044</v>
+        <v>2522.884037700441</v>
       </c>
       <c r="V38" t="n">
         <v>2339.089705381371</v>
       </c>
       <c r="W38" t="n">
-        <v>2133.589605135758</v>
+        <v>2133.589605135759</v>
       </c>
       <c r="X38" t="n">
         <v>1907.39240189918</v>
       </c>
       <c r="Y38" t="n">
-        <v>1664.521624947869</v>
+        <v>1664.52162494787</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>191.4614450466417</v>
       </c>
       <c r="H39" t="n">
-        <v>92.57422485256288</v>
+        <v>92.57422485256291</v>
       </c>
       <c r="I39" t="n">
-        <v>53.90176913250937</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J39" t="n">
-        <v>67.18221732366644</v>
+        <v>67.18221732366646</v>
       </c>
       <c r="K39" t="n">
-        <v>168.0354432859444</v>
+        <v>429.8560279283973</v>
       </c>
       <c r="L39" t="n">
-        <v>349.9675928084988</v>
+        <v>894.2912668444561</v>
       </c>
       <c r="M39" t="n">
-        <v>623.2397944951182</v>
+        <v>1561.32565985926</v>
       </c>
       <c r="N39" t="n">
-        <v>1290.274187509922</v>
+        <v>1813.52884332195</v>
       </c>
       <c r="O39" t="n">
-        <v>1888.694729372283</v>
+        <v>2411.949385184312</v>
       </c>
       <c r="P39" t="n">
-        <v>2351.976904226328</v>
+        <v>2559.953419084819</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.970999799081</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.6445198377813</v>
+        <v>252.913074862283</v>
       </c>
       <c r="C40" t="n">
-        <v>83.97689193437574</v>
+        <v>231.2454469588774</v>
       </c>
       <c r="D40" t="n">
-        <v>81.12880754654138</v>
+        <v>81.12880754654167</v>
       </c>
       <c r="E40" t="n">
-        <v>80.48426898864963</v>
+        <v>80.48426898864983</v>
       </c>
       <c r="F40" t="n">
-        <v>80.48426898864963</v>
+        <v>80.48426898864983</v>
       </c>
       <c r="G40" t="n">
-        <v>59.32208801769607</v>
+        <v>59.3220880176962</v>
       </c>
       <c r="H40" t="n">
-        <v>53.90176913250937</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I40" t="n">
-        <v>53.90176913250937</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J40" t="n">
-        <v>53.90176913250937</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K40" t="n">
         <v>175.0031963795615</v>
       </c>
       <c r="L40" t="n">
-        <v>385.4977640966308</v>
+        <v>385.4977640966309</v>
       </c>
       <c r="M40" t="n">
-        <v>617.8238953325995</v>
+        <v>617.8238953325996</v>
       </c>
       <c r="N40" t="n">
-        <v>850.060446864066</v>
+        <v>850.0604468640661</v>
       </c>
       <c r="O40" t="n">
-        <v>1048.552195263981</v>
+        <v>1048.552195263982</v>
       </c>
       <c r="P40" t="n">
         <v>1194.875494300374</v>
       </c>
       <c r="Q40" t="n">
-        <v>1212.747081863725</v>
+        <v>1212.747081863726</v>
       </c>
       <c r="R40" t="n">
-        <v>1212.747081863725</v>
+        <v>1212.747081863726</v>
       </c>
       <c r="S40" t="n">
-        <v>1008.375896848522</v>
+        <v>1155.644451873023</v>
       </c>
       <c r="T40" t="n">
-        <v>832.9765683062751</v>
+        <v>1078.036275976308</v>
       </c>
       <c r="U40" t="n">
-        <v>691.1025528544105</v>
+        <v>936.1622605244434</v>
       </c>
       <c r="V40" t="n">
-        <v>436.4180646485237</v>
+        <v>730.955174697527</v>
       </c>
       <c r="W40" t="n">
-        <v>294.2694496360644</v>
+        <v>441.5380046605664</v>
       </c>
       <c r="X40" t="n">
-        <v>213.5484537625484</v>
+        <v>360.8170087870503</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.0244296435197</v>
+        <v>287.2929846680215</v>
       </c>
     </row>
     <row r="41">
@@ -7391,43 +7391,43 @@
         <v>1203.49637799234</v>
       </c>
       <c r="D41" t="n">
-        <v>992.4992344100908</v>
+        <v>992.4992344100905</v>
       </c>
       <c r="E41" t="n">
-        <v>753.979536836348</v>
+        <v>753.9795368363475</v>
       </c>
       <c r="F41" t="n">
-        <v>490.2621870712417</v>
+        <v>490.262187071241</v>
       </c>
       <c r="G41" t="n">
-        <v>220.8355651584416</v>
+        <v>220.8355651584417</v>
       </c>
       <c r="H41" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I41" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J41" t="n">
         <v>107.7947583065975</v>
       </c>
       <c r="K41" t="n">
-        <v>239.3048970082912</v>
+        <v>239.3048970082914</v>
       </c>
       <c r="L41" t="n">
-        <v>439.3566148476187</v>
+        <v>439.3566148476191</v>
       </c>
       <c r="M41" t="n">
-        <v>693.622134227337</v>
+        <v>1024.551548535952</v>
       </c>
       <c r="N41" t="n">
-        <v>1360.656527242141</v>
+        <v>1287.545158224484</v>
       </c>
       <c r="O41" t="n">
         <v>1899.53948443527</v>
       </c>
       <c r="P41" t="n">
-        <v>2384.188099959492</v>
+        <v>2384.188099959493</v>
       </c>
       <c r="Q41" t="n">
         <v>2670.917266769243</v>
@@ -7473,40 +7473,40 @@
         <v>634.4647935648393</v>
       </c>
       <c r="E42" t="n">
-        <v>475.2273385593838</v>
+        <v>475.2273385593837</v>
       </c>
       <c r="F42" t="n">
-        <v>328.6927805862688</v>
+        <v>328.6927805862687</v>
       </c>
       <c r="G42" t="n">
-        <v>191.4614450466418</v>
+        <v>191.4614450466417</v>
       </c>
       <c r="H42" t="n">
-        <v>92.57422485256293</v>
+        <v>92.57422485256291</v>
       </c>
       <c r="I42" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J42" t="n">
-        <v>67.18221732366644</v>
+        <v>67.18221732366646</v>
       </c>
       <c r="K42" t="n">
-        <v>168.0354432859443</v>
+        <v>429.8560279283973</v>
       </c>
       <c r="L42" t="n">
-        <v>349.9675928084986</v>
+        <v>611.7881774509517</v>
       </c>
       <c r="M42" t="n">
-        <v>623.2397944951185</v>
+        <v>1246.047518905722</v>
       </c>
       <c r="N42" t="n">
-        <v>1290.274187509922</v>
+        <v>1498.250702368412</v>
       </c>
       <c r="O42" t="n">
-        <v>1888.694729372284</v>
+        <v>2096.671244230774</v>
       </c>
       <c r="P42" t="n">
-        <v>2351.976904226329</v>
+        <v>2559.953419084819</v>
       </c>
       <c r="Q42" t="n">
         <v>2608.970999799081</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.6445198377813</v>
+        <v>252.5344673356921</v>
       </c>
       <c r="C43" t="n">
-        <v>83.97689193437577</v>
+        <v>230.8668394322865</v>
       </c>
       <c r="D43" t="n">
-        <v>81.12880754654141</v>
+        <v>228.018755044452</v>
       </c>
       <c r="E43" t="n">
-        <v>80.48426898864966</v>
+        <v>227.3742164865602</v>
       </c>
       <c r="F43" t="n">
-        <v>80.48426898864966</v>
+        <v>80.48426898864983</v>
       </c>
       <c r="G43" t="n">
-        <v>59.32208801769611</v>
+        <v>59.3220880176962</v>
       </c>
       <c r="H43" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I43" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J43" t="n">
-        <v>53.9017691325094</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K43" t="n">
         <v>175.0031963795615</v>
       </c>
       <c r="L43" t="n">
-        <v>385.4977640966308</v>
+        <v>385.4977640966309</v>
       </c>
       <c r="M43" t="n">
-        <v>617.8238953325995</v>
+        <v>617.8238953325996</v>
       </c>
       <c r="N43" t="n">
-        <v>850.0604468640659</v>
+        <v>850.0604468640661</v>
       </c>
       <c r="O43" t="n">
-        <v>1048.552195263981</v>
+        <v>1048.552195263982</v>
       </c>
       <c r="P43" t="n">
-        <v>1194.875494300373</v>
+        <v>1194.875494300374</v>
       </c>
       <c r="Q43" t="n">
-        <v>1212.747081863725</v>
+        <v>1212.747081863726</v>
       </c>
       <c r="R43" t="n">
-        <v>1212.747081863725</v>
+        <v>1212.747081863726</v>
       </c>
       <c r="S43" t="n">
-        <v>1008.375896848521</v>
+        <v>1155.644451873023</v>
       </c>
       <c r="T43" t="n">
-        <v>930.7677209518059</v>
+        <v>1078.036275976308</v>
       </c>
       <c r="U43" t="n">
-        <v>788.8937054999413</v>
+        <v>936.1622605244434</v>
       </c>
       <c r="V43" t="n">
-        <v>534.2092172940545</v>
+        <v>681.4777723185565</v>
       </c>
       <c r="W43" t="n">
-        <v>392.0606022815953</v>
+        <v>441.1593971339755</v>
       </c>
       <c r="X43" t="n">
-        <v>311.3396064080792</v>
+        <v>360.4384012604594</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.0244296435197</v>
+        <v>286.9143771414306</v>
       </c>
     </row>
     <row r="44">
@@ -7640,43 +7640,43 @@
         <v>220.8355651584416</v>
       </c>
       <c r="H44" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I44" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J44" t="n">
         <v>107.7947583065975</v>
       </c>
       <c r="K44" t="n">
-        <v>239.3048970082912</v>
+        <v>239.3048970082914</v>
       </c>
       <c r="L44" t="n">
-        <v>439.3566148476187</v>
+        <v>439.3566148476191</v>
       </c>
       <c r="M44" t="n">
-        <v>693.622134227337</v>
+        <v>693.6221342273375</v>
       </c>
       <c r="N44" t="n">
-        <v>1287.545158224483</v>
+        <v>1360.656527242141</v>
       </c>
       <c r="O44" t="n">
-        <v>1899.539484435269</v>
+        <v>1972.650853452928</v>
       </c>
       <c r="P44" t="n">
-        <v>2384.188099959492</v>
+        <v>2457.29946897715</v>
       </c>
       <c r="Q44" t="n">
-        <v>2670.917266769242</v>
+        <v>2670.917266769243</v>
       </c>
       <c r="R44" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="S44" t="n">
-        <v>2695.088456625469</v>
+        <v>2695.08845662547</v>
       </c>
       <c r="T44" t="n">
-        <v>2629.275777544687</v>
+        <v>2629.275777544688</v>
       </c>
       <c r="U44" t="n">
         <v>2522.884037700441</v>
@@ -7710,40 +7710,40 @@
         <v>634.4647935648393</v>
       </c>
       <c r="E45" t="n">
-        <v>475.2273385593838</v>
+        <v>475.2273385593837</v>
       </c>
       <c r="F45" t="n">
-        <v>328.6927805862688</v>
+        <v>328.6927805862687</v>
       </c>
       <c r="G45" t="n">
-        <v>191.4614450466418</v>
+        <v>191.4614450466417</v>
       </c>
       <c r="H45" t="n">
-        <v>92.57422485256292</v>
+        <v>92.57422485256291</v>
       </c>
       <c r="I45" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J45" t="n">
-        <v>67.18221732366642</v>
+        <v>192.0123423106712</v>
       </c>
       <c r="K45" t="n">
-        <v>168.0354432859443</v>
+        <v>554.6861529154021</v>
       </c>
       <c r="L45" t="n">
-        <v>349.9675928084986</v>
+        <v>736.6183024379565</v>
       </c>
       <c r="M45" t="n">
-        <v>623.2397944951186</v>
+        <v>1403.65269545276</v>
       </c>
       <c r="N45" t="n">
-        <v>1290.274187509922</v>
+        <v>1655.855878915451</v>
       </c>
       <c r="O45" t="n">
-        <v>1888.694729372284</v>
+        <v>2254.276420777812</v>
       </c>
       <c r="P45" t="n">
-        <v>2351.976904226329</v>
+        <v>2402.280454678319</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.970999799081</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>105.6445198377813</v>
+        <v>252.5344673356917</v>
       </c>
       <c r="C46" t="n">
-        <v>83.97689193437577</v>
+        <v>230.8668394322862</v>
       </c>
       <c r="D46" t="n">
-        <v>81.12880754654141</v>
+        <v>228.0187550444518</v>
       </c>
       <c r="E46" t="n">
-        <v>80.48426898864966</v>
+        <v>227.37421648656</v>
       </c>
       <c r="F46" t="n">
         <v>80.48426898864966</v>
       </c>
       <c r="G46" t="n">
-        <v>59.3220880176961</v>
+        <v>59.32208801769611</v>
       </c>
       <c r="H46" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="I46" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="J46" t="n">
-        <v>53.90176913250939</v>
+        <v>53.90176913250941</v>
       </c>
       <c r="K46" t="n">
         <v>175.0031963795615</v>
       </c>
       <c r="L46" t="n">
-        <v>385.4977640966308</v>
+        <v>385.4977640966309</v>
       </c>
       <c r="M46" t="n">
-        <v>617.8238953325995</v>
+        <v>617.8238953325996</v>
       </c>
       <c r="N46" t="n">
-        <v>850.0604468640659</v>
+        <v>850.0604468640661</v>
       </c>
       <c r="O46" t="n">
-        <v>1048.552195263981</v>
+        <v>1048.552195263982</v>
       </c>
       <c r="P46" t="n">
-        <v>1194.875494300373</v>
+        <v>1194.875494300374</v>
       </c>
       <c r="Q46" t="n">
-        <v>1212.747081863725</v>
+        <v>1212.747081863726</v>
       </c>
       <c r="R46" t="n">
-        <v>1090.187622031435</v>
+        <v>1212.747081863726</v>
       </c>
       <c r="S46" t="n">
-        <v>1033.084992040733</v>
+        <v>1155.644451873023</v>
       </c>
       <c r="T46" t="n">
-        <v>955.4768161440174</v>
+        <v>1078.036275976308</v>
       </c>
       <c r="U46" t="n">
-        <v>813.6028006921529</v>
+        <v>788.893705499942</v>
       </c>
       <c r="V46" t="n">
-        <v>706.1868675107673</v>
+        <v>681.4777723185565</v>
       </c>
       <c r="W46" t="n">
-        <v>564.0382524983081</v>
+        <v>539.3291573060973</v>
       </c>
       <c r="X46" t="n">
-        <v>360.8170087870498</v>
+        <v>458.6081614325813</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.0244296435197</v>
+        <v>385.0841373135525</v>
       </c>
     </row>
   </sheetData>
@@ -8699,16 +8699,16 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>189.3789542284158</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>193.6729680003728</v>
       </c>
       <c r="P11" t="n">
-        <v>287.2837171113213</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>95.7682051174674</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8930,19 +8930,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>368.7865600639896</v>
       </c>
       <c r="N14" t="n">
-        <v>143.6108742090848</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>59.7619890288727</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,16 +9012,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>391.617281174844</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>357.376882569221</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>284.2223700343142</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9167,22 +9167,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>155.6244954078406</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>368.7865600639896</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>260.0633584900219</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9252,10 +9252,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>357.376882569221</v>
+        <v>370.8697276569472</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>380.3694741890034</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>368.7865600639896</v>
       </c>
       <c r="N20" t="n">
-        <v>143.6108742090848</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>220.9115097851078</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386422</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9489,13 +9489,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>357.376882569221</v>
+        <v>370.8697276569472</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>304.9699235522111</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9638,28 +9638,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>372.2462401833436</v>
       </c>
       <c r="N23" t="n">
-        <v>157.3098096311737</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>19.4471989971712</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386422</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>395.0769612941981</v>
       </c>
       <c r="N24" t="n">
-        <v>371.0758179913099</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>83.00708306582237</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0.1847738722191821</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>181.0200044899877</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386422</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9951,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>303.4772551178637</v>
       </c>
       <c r="N27" t="n">
-        <v>461.0508138977377</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>93.70057585150522</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10127,10 +10127,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>210.1530601324427</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,22 +10188,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>263.1170340840587</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>461.0508138977377</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,25 +10428,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>461.0508138977377</v>
+        <v>259.4205695109456</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>187.2441593826305</v>
       </c>
       <c r="N35" t="n">
-        <v>334.272135665266</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386422</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>52.89051232174515</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>42.029390107724</v>
+        <v>439.7689773079107</v>
       </c>
       <c r="N36" t="n">
-        <v>419.0214237900134</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>154.0642134172344</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>416.938256197056</v>
       </c>
       <c r="N38" t="n">
-        <v>334.2721356652655</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>41.30107658386422</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,25 +10902,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>285.3566559530348</v>
       </c>
       <c r="M39" t="n">
-        <v>42.02939010772411</v>
+        <v>439.7689773079105</v>
       </c>
       <c r="N39" t="n">
-        <v>419.0214237900133</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,13 +11066,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>334.2721356652673</v>
       </c>
       <c r="N41" t="n">
-        <v>408.1220033598711</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>306.950313568142</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,16 +11139,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>42.02939010772479</v>
+        <v>406.6628646210081</v>
       </c>
       <c r="N42" t="n">
-        <v>419.0214237900137</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>334.2721356652673</v>
+        <v>408.1220033598711</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>138.465122965301</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>42.02939010772491</v>
+        <v>439.7689773079105</v>
       </c>
       <c r="N45" t="n">
-        <v>419.0214237900136</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>159.2656206126261</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>303.165107859198</v>
       </c>
       <c r="C11" t="n">
-        <v>285.704157966725</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>275.1143078164004</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>302.3616362679792</v>
       </c>
       <c r="F11" t="n">
-        <v>327.3073119374288</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>332.959491363645</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>231.4915937356466</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>23.94276850040939</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>131.3816879599483</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.5549581157773</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>25.05349610740245</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>269.6722349131304</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.1623668741864</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.1394253611582</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="12">
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>275.1143078164004</v>
       </c>
       <c r="E14" t="n">
-        <v>246.2313731965254</v>
+        <v>223.2467662014287</v>
       </c>
       <c r="F14" t="n">
-        <v>327.3073119374288</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>332.959491363645</v>
       </c>
       <c r="H14" t="n">
-        <v>231.4915937356466</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>306.669204851771</v>
       </c>
     </row>
     <row r="15">
@@ -23735,13 +23735,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>13.426326607189</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>13.42632660718871</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23978,61 +23978,61 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>13.42632660718854</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1225726.007445439</v>
+        <v>1225726.007445438</v>
       </c>
     </row>
     <row r="6">
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63654.98704342602</v>
+        <v>63654.98704342604</v>
       </c>
       <c r="M3" t="n">
         <v>105300.8148108541</v>
       </c>
       <c r="N3" t="n">
-        <v>41782.42831583636</v>
+        <v>41782.42831583633</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26500,16 +26500,16 @@
         <v>77601.21311784603</v>
       </c>
       <c r="M5" t="n">
+        <v>68267.74432235744</v>
+      </c>
+      <c r="N5" t="n">
         <v>68267.74432235741</v>
-      </c>
-      <c r="N5" t="n">
-        <v>68267.74432235739</v>
       </c>
       <c r="O5" t="n">
         <v>68267.74432235741</v>
       </c>
       <c r="P5" t="n">
-        <v>68267.74432235741</v>
+        <v>68267.74432235742</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-475276.8499958204</v>
+        <v>-475281.2635736886</v>
       </c>
       <c r="C6" t="n">
-        <v>-475276.8499958205</v>
+        <v>-475281.2635736886</v>
       </c>
       <c r="D6" t="n">
-        <v>-475276.8499958204</v>
+        <v>-475281.2635736886</v>
       </c>
       <c r="E6" t="n">
-        <v>-942299.574555358</v>
+        <v>-942657.778673255</v>
       </c>
       <c r="F6" t="n">
-        <v>-268742.7349871896</v>
+        <v>-268969.1949514661</v>
       </c>
       <c r="G6" t="n">
-        <v>-341105.7041876455</v>
+        <v>-341108.3760266404</v>
       </c>
       <c r="H6" t="n">
-        <v>-277450.7171442194</v>
+        <v>-277453.3889832143</v>
       </c>
       <c r="I6" t="n">
         <v>-279010.7216130057</v>
@@ -26552,16 +26552,16 @@
         <v>-342602.3403960037</v>
       </c>
       <c r="M6" t="n">
-        <v>-383055.5037525796</v>
+        <v>-383055.5037525798</v>
       </c>
       <c r="N6" t="n">
         <v>-319537.1172575619</v>
       </c>
       <c r="O6" t="n">
-        <v>-277754.6889417256</v>
+        <v>-277754.6889417255</v>
       </c>
       <c r="P6" t="n">
-        <v>-277754.6889417256</v>
+        <v>-277754.6889417257</v>
       </c>
     </row>
   </sheetData>
@@ -26707,22 +26707,22 @@
         <v>159.1374676085651</v>
       </c>
       <c r="J2" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="K2" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="M2" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="N2" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="O2" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="P2" t="n">
         <v>145.7958694742563</v>
@@ -26774,10 +26774,10 @@
         <v>690.1599463678449</v>
       </c>
       <c r="O3" t="n">
-        <v>690.1599463678447</v>
+        <v>690.1599463678449</v>
       </c>
       <c r="P3" t="n">
-        <v>690.1599463678447</v>
+        <v>690.1599463678449</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26820,16 @@
         <v>918.8562895532036</v>
       </c>
       <c r="M4" t="n">
-        <v>673.7721141563673</v>
+        <v>673.7721141563678</v>
       </c>
       <c r="N4" t="n">
-        <v>673.7721141563671</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="O4" t="n">
-        <v>673.7721141563675</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="P4" t="n">
-        <v>673.7721141563674</v>
+        <v>673.7721141563676</v>
       </c>
     </row>
   </sheetData>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.56873380428252</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="M2" t="n">
-        <v>66.2271356699738</v>
+        <v>66.22713566997369</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>209.9448896280759</v>
+        <v>209.9448896280765</v>
       </c>
       <c r="N4" t="n">
-        <v>170.5913529983887</v>
+        <v>170.5913529983886</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28169,7 +28169,7 @@
         <v>79.56873380428257</v>
       </c>
       <c r="C12" t="n">
-        <v>79.56873380428257</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>79.56873380428257</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="W12" t="n">
+        <v>9.23740740983024</v>
+      </c>
+      <c r="X12" t="n">
         <v>79.56873380428257</v>
       </c>
-      <c r="X12" t="n">
-        <v>9.237407409830382</v>
-      </c>
       <c r="Y12" t="n">
-        <v>79.56873380428257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28406,7 +28406,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>22.0420862907965</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -28418,13 +28418,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>63.32508893222608</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>38.28573116285297</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28649,13 +28649,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>101.6108200950791</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>101.610820095079</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="C19" t="n">
         <v>159.1374676085651</v>
@@ -28767,19 +28767,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.3338652339669</v>
+        <v>68.10149423638173</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>159.1374676085651</v>
       </c>
-      <c r="T19" t="n">
-        <v>105.9050966109799</v>
-      </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="V19" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>159.1374676085651</v>
@@ -28895,10 +28895,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.89834799213801</v>
+        <v>63.32508893222607</v>
       </c>
       <c r="I21" t="n">
-        <v>3.712472102941028</v>
+        <v>38.28573116285297</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
         <v>159.1374676085651</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>68.10149423638194</v>
       </c>
       <c r="S22" t="n">
         <v>159.1374676085651</v>
@@ -29013,19 +29013,19 @@
         <v>159.1374676085651</v>
       </c>
       <c r="U22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>159.1374676085651</v>
       </c>
       <c r="X22" t="n">
-        <v>68.10149423638188</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
     </row>
     <row r="23">
@@ -29126,16 +29126,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>88.18449348788984</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>49.89876232503683</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.28573116285297</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29196,7 +29196,7 @@
         <v>159.1374676085651</v>
       </c>
       <c r="C25" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -29205,7 +29205,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>81.66668243499325</v>
       </c>
       <c r="G25" t="n">
         <v>159.1374676085651</v>
@@ -29241,10 +29241,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>121.3338652339669</v>
       </c>
       <c r="S25" t="n">
-        <v>159.1374676085651</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>159.1374676085651</v>
@@ -29253,10 +29253,10 @@
         <v>159.1374676085651</v>
       </c>
       <c r="V25" t="n">
-        <v>57.57949964602884</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>159.1374676085651</v>
       </c>
       <c r="X25" t="n">
         <v>159.1374676085651</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="C26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="D26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="E26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="F26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="G26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="H26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="I26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="T26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="U26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="V26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="W26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="X26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="C28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="D28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="E28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="F28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="G28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="H28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="I28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="J28" t="n">
-        <v>79.56873380428136</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="K28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="L28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="M28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="N28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="O28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="P28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428249</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="R28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="S28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="T28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="U28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="V28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="W28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="X28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="C29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="D29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="E29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="F29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="G29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="H29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="I29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="T29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="U29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="V29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="W29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="X29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="C31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="D31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="E31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="F31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="G31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="H31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="I31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="J31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="K31" t="n">
-        <v>79.56873380428135</v>
+        <v>79.56873380428235</v>
       </c>
       <c r="L31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="M31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="N31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="O31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="P31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="R31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="S31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="T31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="U31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="V31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="W31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="X31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.56873380428259</v>
+        <v>79.56873380428257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="C34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="D34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="E34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="F34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="G34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="H34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="I34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="J34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="K34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="L34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="M34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="N34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="O34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="P34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="R34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="S34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="T34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="U34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="V34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="W34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="X34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.56873380428253</v>
+        <v>79.56873380428256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="E35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="G35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I35" t="n">
         <v>103.511502304692</v>
@@ -30037,22 +30037,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="W35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="X35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>48.98262835518048</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="E37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I37" t="n">
         <v>118.0234404586545</v>
@@ -30192,25 +30192,25 @@
         <v>121.3338652339669</v>
       </c>
       <c r="S37" t="n">
-        <v>145.7958694742563</v>
+        <v>48.98262835518094</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="E38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="G38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I38" t="n">
         <v>103.511502304692</v>
@@ -30274,22 +30274,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="W38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="X38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I40" t="n">
         <v>118.0234404586545</v>
@@ -30429,25 +30429,25 @@
         <v>121.3338652339669</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="T40" t="n">
-        <v>48.9826283551804</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>48.98262835518085</v>
       </c>
       <c r="W40" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y40" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="E41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="G41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I41" t="n">
         <v>103.511502304692</v>
@@ -30511,22 +30511,22 @@
         <v>145.7958694742563</v>
       </c>
       <c r="T41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="W41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="X41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="42">
@@ -30615,31 +30615,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="C43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="D43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="E43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="H43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="I43" t="n">
         <v>118.0234404586545</v>
       </c>
       <c r="J43" t="n">
-        <v>5.369444003513308</v>
+        <v>5.36944400351328</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>121.3338652339669</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="T43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="U43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>145.7958694742563</v>
+        <v>48.60780690385579</v>
       </c>
       <c r="X43" t="n">
-        <v>145.7958694742563</v>
+        <v>145.7958694742562</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.98262835518082</v>
+        <v>145.7958694742562</v>
       </c>
     </row>
     <row r="44">
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>145.7958694742563</v>
+        <v>48.60780690385513</v>
       </c>
       <c r="C46" t="n">
         <v>145.7958694742563</v>
@@ -30864,7 +30864,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>145.7958694742563</v>
@@ -30876,7 +30876,7 @@
         <v>118.0234404586545</v>
       </c>
       <c r="J46" t="n">
-        <v>5.369444003513308</v>
+        <v>5.36944400351328</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>121.3338652339669</v>
       </c>
       <c r="S46" t="n">
         <v>145.7958694742563</v>
@@ -30909,7 +30909,7 @@
         <v>145.7958694742563</v>
       </c>
       <c r="U46" t="n">
-        <v>145.7958694742563</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>145.7958694742563</v>
@@ -30918,10 +30918,10 @@
         <v>145.7958694742563</v>
       </c>
       <c r="X46" t="n">
-        <v>24.5206241148914</v>
+        <v>145.7958694742563</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>145.7958694742563</v>
       </c>
     </row>
   </sheetData>
@@ -34123,46 +34123,46 @@
         <v>2.774512347207414</v>
       </c>
       <c r="H41" t="n">
-        <v>28.41447457583793</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I41" t="n">
-        <v>106.9643872657139</v>
+        <v>106.964387265714</v>
       </c>
       <c r="J41" t="n">
-        <v>235.4832673287954</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K41" t="n">
-        <v>352.9283749860853</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L41" t="n">
-        <v>437.8388572319343</v>
+        <v>437.8388572319345</v>
       </c>
       <c r="M41" t="n">
-        <v>487.1800911865841</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N41" t="n">
-        <v>495.0631743930873</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O41" t="n">
-        <v>467.4741172405435</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P41" t="n">
-        <v>398.9783436688604</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q41" t="n">
-        <v>299.6161202344948</v>
+        <v>299.6161202344949</v>
       </c>
       <c r="R41" t="n">
         <v>174.2844612302679</v>
       </c>
       <c r="S41" t="n">
-        <v>63.224200111989</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T41" t="n">
         <v>12.14542779990046</v>
       </c>
       <c r="U41" t="n">
-        <v>0.221960987776593</v>
+        <v>0.2219609877765931</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.484494978979892</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H42" t="n">
         <v>14.33709624435844</v>
       </c>
       <c r="I42" t="n">
-        <v>51.11090168856209</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J42" t="n">
-        <v>140.2522207991485</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K42" t="n">
-        <v>239.7133843908013</v>
+        <v>239.7133843908014</v>
       </c>
       <c r="L42" t="n">
-        <v>322.3242277824543</v>
+        <v>322.3242277824544</v>
       </c>
       <c r="M42" t="n">
-        <v>376.1371707704753</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N42" t="n">
-        <v>386.092402449687</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O42" t="n">
-        <v>353.1991189680799</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P42" t="n">
         <v>283.4734315562569</v>
       </c>
       <c r="Q42" t="n">
-        <v>189.4944818782052</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R42" t="n">
-        <v>92.16890755455861</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S42" t="n">
-        <v>27.57384314026245</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T42" t="n">
-        <v>5.983556516151406</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09766414335394033</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.244550722958408</v>
+        <v>1.244550722958409</v>
       </c>
       <c r="H43" t="n">
-        <v>11.0651873368484</v>
+        <v>11.06518733684841</v>
       </c>
       <c r="I43" t="n">
-        <v>37.42703446860378</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J43" t="n">
-        <v>87.98973611315947</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K43" t="n">
-        <v>144.5941658128041</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L43" t="n">
-        <v>185.030750211471</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M43" t="n">
-        <v>195.0889828724712</v>
+        <v>195.0889828724713</v>
       </c>
       <c r="N43" t="n">
-        <v>190.4502029050809</v>
+        <v>190.450202905081</v>
       </c>
       <c r="O43" t="n">
-        <v>175.9115876414303</v>
+        <v>175.9115876414304</v>
       </c>
       <c r="P43" t="n">
         <v>150.5227528930787</v>
       </c>
       <c r="Q43" t="n">
-        <v>104.2141519015445</v>
+        <v>104.2141519015446</v>
       </c>
       <c r="R43" t="n">
-        <v>55.95952614320259</v>
+        <v>55.95952614320262</v>
       </c>
       <c r="S43" t="n">
         <v>21.68912487192062</v>
       </c>
       <c r="T43" t="n">
-        <v>5.317625816276834</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06788458488864053</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,46 +34360,46 @@
         <v>2.774512347207414</v>
       </c>
       <c r="H44" t="n">
-        <v>28.41447457583793</v>
+        <v>28.41447457583794</v>
       </c>
       <c r="I44" t="n">
-        <v>106.9643872657139</v>
+        <v>106.964387265714</v>
       </c>
       <c r="J44" t="n">
-        <v>235.4832673287954</v>
+        <v>235.4832673287955</v>
       </c>
       <c r="K44" t="n">
-        <v>352.9283749860853</v>
+        <v>352.9283749860854</v>
       </c>
       <c r="L44" t="n">
-        <v>437.8388572319343</v>
+        <v>437.8388572319345</v>
       </c>
       <c r="M44" t="n">
-        <v>487.1800911865841</v>
+        <v>487.1800911865843</v>
       </c>
       <c r="N44" t="n">
-        <v>495.0631743930873</v>
+        <v>495.0631743930874</v>
       </c>
       <c r="O44" t="n">
-        <v>467.4741172405435</v>
+        <v>467.4741172405436</v>
       </c>
       <c r="P44" t="n">
-        <v>398.9783436688604</v>
+        <v>398.9783436688605</v>
       </c>
       <c r="Q44" t="n">
-        <v>299.6161202344948</v>
+        <v>299.6161202344949</v>
       </c>
       <c r="R44" t="n">
         <v>174.2844612302679</v>
       </c>
       <c r="S44" t="n">
-        <v>63.224200111989</v>
+        <v>63.22420011198902</v>
       </c>
       <c r="T44" t="n">
         <v>12.14542779990046</v>
       </c>
       <c r="U44" t="n">
-        <v>0.221960987776593</v>
+        <v>0.2219609877765931</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.484494978979892</v>
+        <v>1.484494978979893</v>
       </c>
       <c r="H45" t="n">
         <v>14.33709624435844</v>
       </c>
       <c r="I45" t="n">
-        <v>51.11090168856209</v>
+        <v>51.11090168856211</v>
       </c>
       <c r="J45" t="n">
-        <v>140.2522207991485</v>
+        <v>140.2522207991486</v>
       </c>
       <c r="K45" t="n">
-        <v>239.7133843908013</v>
+        <v>239.7133843908014</v>
       </c>
       <c r="L45" t="n">
-        <v>322.3242277824543</v>
+        <v>322.3242277824544</v>
       </c>
       <c r="M45" t="n">
-        <v>376.1371707704753</v>
+        <v>376.1371707704754</v>
       </c>
       <c r="N45" t="n">
-        <v>386.092402449687</v>
+        <v>386.0924024496871</v>
       </c>
       <c r="O45" t="n">
-        <v>353.1991189680799</v>
+        <v>353.19911896808</v>
       </c>
       <c r="P45" t="n">
         <v>283.4734315562569</v>
       </c>
       <c r="Q45" t="n">
-        <v>189.4944818782052</v>
+        <v>189.4944818782053</v>
       </c>
       <c r="R45" t="n">
-        <v>92.16890755455861</v>
+        <v>92.16890755455864</v>
       </c>
       <c r="S45" t="n">
-        <v>27.57384314026245</v>
+        <v>27.57384314026246</v>
       </c>
       <c r="T45" t="n">
-        <v>5.983556516151406</v>
+        <v>5.983556516151408</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09766414335394033</v>
+        <v>0.09766414335394036</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.244550722958408</v>
+        <v>1.244550722958409</v>
       </c>
       <c r="H46" t="n">
-        <v>11.0651873368484</v>
+        <v>11.06518733684841</v>
       </c>
       <c r="I46" t="n">
-        <v>37.42703446860378</v>
+        <v>37.42703446860379</v>
       </c>
       <c r="J46" t="n">
-        <v>87.98973611315947</v>
+        <v>87.98973611315949</v>
       </c>
       <c r="K46" t="n">
-        <v>144.5941658128041</v>
+        <v>144.5941658128042</v>
       </c>
       <c r="L46" t="n">
-        <v>185.030750211471</v>
+        <v>185.0307502114711</v>
       </c>
       <c r="M46" t="n">
-        <v>195.0889828724712</v>
+        <v>195.0889828724713</v>
       </c>
       <c r="N46" t="n">
-        <v>190.4502029050809</v>
+        <v>190.450202905081</v>
       </c>
       <c r="O46" t="n">
-        <v>175.9115876414303</v>
+        <v>175.9115876414304</v>
       </c>
       <c r="P46" t="n">
         <v>150.5227528930787</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.2141519015445</v>
+        <v>104.2141519015446</v>
       </c>
       <c r="R46" t="n">
-        <v>55.95952614320259</v>
+        <v>55.95952614320262</v>
       </c>
       <c r="S46" t="n">
         <v>21.68912487192062</v>
       </c>
       <c r="T46" t="n">
-        <v>5.317625816276834</v>
+        <v>5.317625816276836</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06788458488864053</v>
+        <v>0.06788458488864055</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35419,16 +35419,16 @@
         <v>256.8338579593116</v>
       </c>
       <c r="N11" t="n">
-        <v>265.6501107964965</v>
+        <v>455.0290650249123</v>
       </c>
       <c r="O11" t="n">
-        <v>237.3759058188569</v>
+        <v>431.0488738192298</v>
       </c>
       <c r="P11" t="n">
-        <v>455.0290650249123</v>
+        <v>167.745347913591</v>
       </c>
       <c r="Q11" t="n">
-        <v>173.0786354775128</v>
+        <v>77.31043036004539</v>
       </c>
       <c r="R11" t="n">
         <v>24.41534328911823</v>
@@ -35650,19 +35650,19 @@
         <v>132.8385239411049</v>
       </c>
       <c r="L14" t="n">
-        <v>202.0724422619472</v>
+        <v>619.7336568123976</v>
       </c>
       <c r="M14" t="n">
-        <v>256.8338579593116</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="N14" t="n">
-        <v>409.2609850055813</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O14" t="n">
-        <v>618.1760870816023</v>
+        <v>237.3759058188569</v>
       </c>
       <c r="P14" t="n">
-        <v>489.5440560850736</v>
+        <v>227.5073369424637</v>
       </c>
       <c r="Q14" t="n">
         <v>289.6254210199501</v>
@@ -35732,16 +35732,16 @@
         <v>183.7698480025802</v>
       </c>
       <c r="M15" t="n">
-        <v>625.6204180233011</v>
+        <v>234.0031368484571</v>
       </c>
       <c r="N15" t="n">
-        <v>254.7506903663538</v>
+        <v>612.1275729355749</v>
       </c>
       <c r="O15" t="n">
         <v>604.4651938003651</v>
       </c>
       <c r="P15" t="n">
-        <v>433.7213941762408</v>
+        <v>467.9617927818638</v>
       </c>
       <c r="Q15" t="n">
         <v>259.5899955280329</v>
@@ -35887,22 +35887,22 @@
         <v>132.8385239411049</v>
       </c>
       <c r="L17" t="n">
-        <v>357.6969376697879</v>
+        <v>619.7336568123976</v>
       </c>
       <c r="M17" t="n">
-        <v>625.6204180233011</v>
+        <v>256.8338579593116</v>
       </c>
       <c r="N17" t="n">
         <v>265.6501107964965</v>
       </c>
       <c r="O17" t="n">
-        <v>237.3759058188569</v>
+        <v>618.1760870816023</v>
       </c>
       <c r="P17" t="n">
-        <v>489.5440560850736</v>
+        <v>427.8087064036129</v>
       </c>
       <c r="Q17" t="n">
-        <v>289.6254210199501</v>
+        <v>77.31043036004539</v>
       </c>
       <c r="R17" t="n">
         <v>24.41534328911823</v>
@@ -35972,10 +35972,10 @@
         <v>234.0031368484571</v>
       </c>
       <c r="N18" t="n">
-        <v>612.1275729355749</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="O18" t="n">
-        <v>604.4651938003651</v>
+        <v>590.972348712639</v>
       </c>
       <c r="P18" t="n">
         <v>467.9617927818638</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>54.43736280210922</v>
+        <v>223.533977974183</v>
       </c>
       <c r="K20" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L20" t="n">
         <v>202.0724422619472</v>
       </c>
       <c r="M20" t="n">
-        <v>256.8338579593116</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="N20" t="n">
-        <v>409.2609850055813</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O20" t="n">
-        <v>618.1760870816023</v>
+        <v>458.2874156039647</v>
       </c>
       <c r="P20" t="n">
-        <v>489.5440560850736</v>
+        <v>167.745347913591</v>
       </c>
       <c r="Q20" t="n">
-        <v>289.6254210199501</v>
+        <v>77.31043036004539</v>
       </c>
       <c r="R20" t="n">
-        <v>24.41534328911823</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,13 +36209,13 @@
         <v>234.0031368484571</v>
       </c>
       <c r="N21" t="n">
-        <v>612.1275729355749</v>
+        <v>625.6204180233011</v>
       </c>
       <c r="O21" t="n">
         <v>604.4651938003651</v>
       </c>
       <c r="P21" t="n">
-        <v>467.9617927818638</v>
+        <v>454.4689476941378</v>
       </c>
       <c r="Q21" t="n">
         <v>259.5899955280329</v>
@@ -36358,28 +36358,28 @@
         <v>54.43736280210922</v>
       </c>
       <c r="K23" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L23" t="n">
         <v>202.0724422619472</v>
       </c>
       <c r="M23" t="n">
-        <v>256.8338579593116</v>
+        <v>629.0800981426552</v>
       </c>
       <c r="N23" t="n">
-        <v>422.9599204276702</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O23" t="n">
         <v>618.1760870816023</v>
       </c>
       <c r="P23" t="n">
-        <v>489.5440560850736</v>
+        <v>187.1925469107622</v>
       </c>
       <c r="Q23" t="n">
-        <v>289.6254210199501</v>
+        <v>77.31043036004539</v>
       </c>
       <c r="R23" t="n">
-        <v>24.41534328911823</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>13.41459413248188</v>
+        <v>139.5056294728907</v>
       </c>
       <c r="K24" t="n">
         <v>101.8719454164424</v>
       </c>
       <c r="L24" t="n">
-        <v>183.7698480025802</v>
+        <v>554.6101933060394</v>
       </c>
       <c r="M24" t="n">
-        <v>234.0031368484571</v>
+        <v>629.0800981426552</v>
       </c>
       <c r="N24" t="n">
-        <v>625.8265083576638</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O24" t="n">
-        <v>604.4651938003651</v>
+        <v>293.609957589458</v>
       </c>
       <c r="P24" t="n">
         <v>467.9617927818638</v>
       </c>
       <c r="Q24" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218376</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>54.43736280210922</v>
+        <v>223.533977974183</v>
       </c>
       <c r="K26" t="n">
-        <v>133.0232978133241</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L26" t="n">
         <v>619.7336568123976</v>
@@ -36604,7 +36604,7 @@
         <v>706.3473914521441</v>
       </c>
       <c r="N26" t="n">
-        <v>702.9970352084806</v>
+        <v>446.6701152864842</v>
       </c>
       <c r="O26" t="n">
         <v>618.1760870816023</v>
@@ -36613,10 +36613,10 @@
         <v>489.5440560850736</v>
       </c>
       <c r="Q26" t="n">
-        <v>289.6254210199501</v>
+        <v>77.31043036004539</v>
       </c>
       <c r="R26" t="n">
-        <v>24.41534328911823</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.41459413248188</v>
+        <v>139.5056294728907</v>
       </c>
       <c r="K27" t="n">
-        <v>101.8719454164424</v>
+        <v>366.337182429021</v>
       </c>
       <c r="L27" t="n">
         <v>183.7698480025802</v>
       </c>
       <c r="M27" t="n">
-        <v>234.0031368484571</v>
+        <v>537.4803919663208</v>
       </c>
       <c r="N27" t="n">
-        <v>715.8015042640916</v>
+        <v>734.0930647099074</v>
       </c>
       <c r="O27" t="n">
-        <v>604.4651938003651</v>
+        <v>210.6028745236356</v>
       </c>
       <c r="P27" t="n">
-        <v>467.9617927818638</v>
+        <v>149.4990241419267</v>
       </c>
       <c r="Q27" t="n">
         <v>259.5899955280329</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.19928980076809</v>
+        <v>74.19928980076929</v>
       </c>
       <c r="K28" t="n">
         <v>201.8934077912039</v>
@@ -36759,19 +36759,19 @@
         <v>292.1895092760698</v>
       </c>
       <c r="M28" t="n">
-        <v>314.2415936385945</v>
+        <v>314.2415936385944</v>
       </c>
       <c r="N28" t="n">
         <v>314.1511090885921</v>
       </c>
       <c r="O28" t="n">
-        <v>280.0654493597527</v>
+        <v>280.0654493597526</v>
       </c>
       <c r="P28" t="n">
-        <v>227.3700459622548</v>
+        <v>227.3700459622547</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.62084245413278</v>
+        <v>97.62084245413277</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,7 +36835,7 @@
         <v>456.9839365122696</v>
       </c>
       <c r="L29" t="n">
-        <v>295.7730181134525</v>
+        <v>619.7336568123976</v>
       </c>
       <c r="M29" t="n">
         <v>706.3473914521441</v>
@@ -36847,10 +36847,10 @@
         <v>618.1760870816023</v>
       </c>
       <c r="P29" t="n">
-        <v>489.5440560850736</v>
+        <v>377.8984080460337</v>
       </c>
       <c r="Q29" t="n">
-        <v>289.6254210199501</v>
+        <v>77.31043036004539</v>
       </c>
       <c r="R29" t="n">
         <v>24.41534328911823</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>13.41459413248188</v>
+        <v>139.5056294728907</v>
       </c>
       <c r="K30" t="n">
-        <v>101.8719454164424</v>
+        <v>364.988979500501</v>
       </c>
       <c r="L30" t="n">
         <v>183.7698480025802</v>
       </c>
       <c r="M30" t="n">
-        <v>234.0031368484571</v>
+        <v>699.708200598457</v>
       </c>
       <c r="N30" t="n">
-        <v>715.8015042640916</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O30" t="n">
-        <v>604.4651938003651</v>
+        <v>210.6028745236356</v>
       </c>
       <c r="P30" t="n">
         <v>467.9617927818638</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.19928980076931</v>
+        <v>74.19928980076929</v>
       </c>
       <c r="K31" t="n">
-        <v>201.8934077912027</v>
+        <v>201.8934077912037</v>
       </c>
       <c r="L31" t="n">
         <v>292.1895092760698</v>
       </c>
       <c r="M31" t="n">
-        <v>314.2415936385945</v>
+        <v>314.2415936385944</v>
       </c>
       <c r="N31" t="n">
         <v>314.1511090885921</v>
       </c>
       <c r="O31" t="n">
-        <v>280.0654493597527</v>
+        <v>280.0654493597526</v>
       </c>
       <c r="P31" t="n">
         <v>227.3700459622548</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.62084245413278</v>
+        <v>97.62084245413277</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>13.41459413248188</v>
       </c>
       <c r="K33" t="n">
-        <v>101.8719454164424</v>
+        <v>366.337182429021</v>
       </c>
       <c r="L33" t="n">
         <v>183.7698480025802</v>
       </c>
       <c r="M33" t="n">
-        <v>234.0031368484571</v>
+        <v>699.708200598457</v>
       </c>
       <c r="N33" t="n">
-        <v>715.8015042640916</v>
+        <v>514.1712598772995</v>
       </c>
       <c r="O33" t="n">
         <v>604.4651938003651</v>
       </c>
       <c r="P33" t="n">
-        <v>467.9617927818638</v>
+        <v>149.4990241419267</v>
       </c>
       <c r="Q33" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218376</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.19928980076925</v>
+        <v>74.19928980076928</v>
       </c>
       <c r="K34" t="n">
         <v>201.8934077912039</v>
@@ -37245,7 +37245,7 @@
         <v>227.3700459622548</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.62084245413273</v>
+        <v>97.62084245413276</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>54.43736280210922</v>
+        <v>223.533977974183</v>
       </c>
       <c r="K35" t="n">
-        <v>132.8385239411049</v>
+        <v>456.9839365122696</v>
       </c>
       <c r="L35" t="n">
         <v>202.0724422619472</v>
       </c>
       <c r="M35" t="n">
-        <v>256.8338579593116</v>
+        <v>444.0780173419421</v>
       </c>
       <c r="N35" t="n">
-        <v>599.9222464617625</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O35" t="n">
         <v>618.1760870816023</v>
       </c>
       <c r="P35" t="n">
-        <v>489.5440560850736</v>
+        <v>167.745347913591</v>
       </c>
       <c r="Q35" t="n">
         <v>289.6254210199501</v>
       </c>
       <c r="R35" t="n">
-        <v>24.41534328911823</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>13.41459413248188</v>
+        <v>139.5056294728907</v>
       </c>
       <c r="K36" t="n">
-        <v>101.8719454164424</v>
+        <v>154.7624577381875</v>
       </c>
       <c r="L36" t="n">
-        <v>183.7698480025802</v>
+        <v>554.6101933060394</v>
       </c>
       <c r="M36" t="n">
-        <v>276.0325269561811</v>
+        <v>673.7721141563678</v>
       </c>
       <c r="N36" t="n">
-        <v>673.7721141563673</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O36" t="n">
         <v>604.4651938003651</v>
       </c>
       <c r="P36" t="n">
-        <v>467.9617927818638</v>
+        <v>149.4990241419267</v>
       </c>
       <c r="Q36" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218376</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>54.43736280210922</v>
+        <v>208.5015762193436</v>
       </c>
       <c r="K38" t="n">
         <v>132.8385239411049</v>
@@ -37549,10 +37549,10 @@
         <v>202.0724422619472</v>
       </c>
       <c r="M38" t="n">
-        <v>256.8338579593116</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="N38" t="n">
-        <v>599.922246461762</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O38" t="n">
         <v>618.1760870816023</v>
@@ -37561,10 +37561,10 @@
         <v>489.5440560850736</v>
       </c>
       <c r="Q38" t="n">
-        <v>289.6254210199501</v>
+        <v>77.31043036004539</v>
       </c>
       <c r="R38" t="n">
-        <v>24.41534328911823</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>13.41459413248188</v>
       </c>
       <c r="K39" t="n">
-        <v>101.8719454164424</v>
+        <v>366.337182429021</v>
       </c>
       <c r="L39" t="n">
-        <v>183.7698480025802</v>
+        <v>469.126503955615</v>
       </c>
       <c r="M39" t="n">
-        <v>276.0325269561812</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="N39" t="n">
-        <v>673.7721141563671</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O39" t="n">
         <v>604.4651938003651</v>
       </c>
       <c r="P39" t="n">
-        <v>467.9617927818638</v>
+        <v>149.4990241419267</v>
       </c>
       <c r="Q39" t="n">
-        <v>259.5899955280329</v>
+        <v>49.51270779218376</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>54.43736280210916</v>
+        <v>54.43736280210922</v>
       </c>
       <c r="K41" t="n">
-        <v>132.8385239411048</v>
+        <v>132.8385239411049</v>
       </c>
       <c r="L41" t="n">
-        <v>202.0724422619471</v>
+        <v>202.0724422619472</v>
       </c>
       <c r="M41" t="n">
-        <v>256.8338579593114</v>
+        <v>591.1059936245789</v>
       </c>
       <c r="N41" t="n">
-        <v>673.7721141563675</v>
+        <v>265.6501107964965</v>
       </c>
       <c r="O41" t="n">
-        <v>544.3262193869987</v>
+        <v>618.1760870816023</v>
       </c>
       <c r="P41" t="n">
-        <v>489.5440560850735</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q41" t="n">
-        <v>289.62542101995</v>
+        <v>289.6254210199501</v>
       </c>
       <c r="R41" t="n">
-        <v>24.41534328911817</v>
+        <v>24.41534328911823</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.41459413248185</v>
+        <v>13.41459413248188</v>
       </c>
       <c r="K42" t="n">
-        <v>101.8719454164423</v>
+        <v>366.337182429021</v>
       </c>
       <c r="L42" t="n">
-        <v>183.7698480025801</v>
+        <v>183.7698480025802</v>
       </c>
       <c r="M42" t="n">
-        <v>276.0325269561818</v>
+        <v>640.6660014694652</v>
       </c>
       <c r="N42" t="n">
-        <v>673.7721141563675</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O42" t="n">
-        <v>604.465193800365</v>
+        <v>604.4651938003651</v>
       </c>
       <c r="P42" t="n">
         <v>467.9617927818638</v>
       </c>
       <c r="Q42" t="n">
-        <v>259.5899955280328</v>
+        <v>49.51270779218376</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,19 +37944,19 @@
         <v>212.6207754717872</v>
       </c>
       <c r="M43" t="n">
-        <v>234.6728598343118</v>
+        <v>234.6728598343119</v>
       </c>
       <c r="N43" t="n">
-        <v>234.5823752843095</v>
+        <v>234.5823752843096</v>
       </c>
       <c r="O43" t="n">
-        <v>200.49671555547</v>
+        <v>200.4967155554701</v>
       </c>
       <c r="P43" t="n">
         <v>147.8013121579722</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.05210864985015</v>
+        <v>18.0521086498502</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>54.43736280210916</v>
+        <v>54.43736280210922</v>
       </c>
       <c r="K44" t="n">
-        <v>132.8385239411048</v>
+        <v>132.8385239411049</v>
       </c>
       <c r="L44" t="n">
-        <v>202.0724422619471</v>
+        <v>202.0724422619472</v>
       </c>
       <c r="M44" t="n">
-        <v>256.8338579593114</v>
+        <v>256.8338579593116</v>
       </c>
       <c r="N44" t="n">
-        <v>599.9222464617636</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="O44" t="n">
-        <v>618.1760870816021</v>
+        <v>618.1760870816023</v>
       </c>
       <c r="P44" t="n">
-        <v>489.5440560850735</v>
+        <v>489.5440560850736</v>
       </c>
       <c r="Q44" t="n">
-        <v>289.62542101995</v>
+        <v>215.7755533253464</v>
       </c>
       <c r="R44" t="n">
-        <v>24.41534328911817</v>
+        <v>24.41534328911823</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.41459413248185</v>
+        <v>139.5056294728907</v>
       </c>
       <c r="K45" t="n">
-        <v>101.8719454164423</v>
+        <v>366.337182429021</v>
       </c>
       <c r="L45" t="n">
-        <v>183.7698480025801</v>
+        <v>183.7698480025802</v>
       </c>
       <c r="M45" t="n">
-        <v>276.0325269561819</v>
+        <v>673.7721141563676</v>
       </c>
       <c r="N45" t="n">
-        <v>673.7721141563674</v>
+        <v>254.7506903663538</v>
       </c>
       <c r="O45" t="n">
-        <v>604.465193800365</v>
+        <v>604.4651938003651</v>
       </c>
       <c r="P45" t="n">
-        <v>467.9617927818638</v>
+        <v>149.4990241419267</v>
       </c>
       <c r="Q45" t="n">
-        <v>259.5899955280328</v>
+        <v>208.7783284048098</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>212.6207754717872</v>
       </c>
       <c r="M46" t="n">
-        <v>234.6728598343118</v>
+        <v>234.6728598343119</v>
       </c>
       <c r="N46" t="n">
-        <v>234.5823752843095</v>
+        <v>234.5823752843096</v>
       </c>
       <c r="O46" t="n">
-        <v>200.49671555547</v>
+        <v>200.4967155554701</v>
       </c>
       <c r="P46" t="n">
         <v>147.8013121579722</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.05210864985015</v>
+        <v>18.0521086498502</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
